--- a/Analyst rating changes.xlsx
+++ b/Analyst rating changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Analyst-sentiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{50EA8B96-A233-42DC-AC20-99E1B30845A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66A5CE83-844A-4578-9EAF-5AFEBC43225A}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{50EA8B96-A233-42DC-AC20-99E1B30845A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98545585-8B84-4965-8A9B-75844AB092A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>MEKKO</t>
+  </si>
+  <si>
+    <t>LUND B</t>
+  </si>
+  <si>
+    <t>IMP A SDB</t>
   </si>
 </sst>
 </file>
@@ -770,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C20D-DE11-9641-971F-C3D4179070FE}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,148 +814,142 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>155</v>
+      </c>
+      <c r="G3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>965.2</v>
-      </c>
-      <c r="G2">
-        <v>822.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>53.34</v>
-      </c>
-      <c r="G3">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>162.56</v>
+        <v>285</v>
       </c>
       <c r="G4">
-        <v>166.624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="G5">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>105</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>274</v>
-      </c>
-      <c r="G7">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44524</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>97</v>
+        <v>965.2</v>
       </c>
       <c r="G8">
-        <v>87</v>
+        <v>822.96</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,22 +972,22 @@
         <v>44524</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>340</v>
+        <v>53.34</v>
       </c>
       <c r="G9">
-        <v>270</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,22 +995,22 @@
         <v>44524</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>185</v>
+        <v>162.56</v>
       </c>
       <c r="G10">
-        <v>150</v>
+        <v>166.624</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1018,239 +1018,242 @@
         <v>44524</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F11">
-        <v>435</v>
+        <v>310</v>
       </c>
       <c r="G11">
-        <v>370</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>105</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>274</v>
+      </c>
+      <c r="G13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>97</v>
+      </c>
+      <c r="G14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>340</v>
+      </c>
+      <c r="G15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>185</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>435</v>
+      </c>
+      <c r="G17">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>44523</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B18" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C18" t="s">
         <v>119</v>
       </c>
-      <c r="D12">
+      <c r="D18">
         <v>-1</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <f>10.5*7.08</f>
         <v>74.34</v>
       </c>
-      <c r="G12">
+      <c r="G18">
         <f>12.5*7.08</f>
         <v>88.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>44523</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
         <v>477</v>
       </c>
-      <c r="G13">
+      <c r="G19">
         <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>128</v>
-      </c>
-      <c r="G14">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>82</v>
-      </c>
-      <c r="G16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>310</v>
-      </c>
-      <c r="G17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>370</v>
-      </c>
-      <c r="G18">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>1145.7</v>
-      </c>
-      <c r="G19">
-        <v>1181.8800000000001</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>35</v>
+        <v>128</v>
+      </c>
+      <c r="G20">
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1259,21 +1262,21 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1282,61 +1285,67 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="G22">
-        <v>185</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>310</v>
+      </c>
+      <c r="G23">
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="G24">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1345,64 +1354,61 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <v>170</v>
+        <v>1145.7</v>
       </c>
       <c r="G25">
-        <v>160</v>
+        <v>1181.8800000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>147</v>
-      </c>
-      <c r="G26">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="G27">
-        <v>190</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1414,67 +1420,61 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="G28">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
-      </c>
-      <c r="F29">
-        <v>125</v>
-      </c>
-      <c r="G29">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>142</v>
+        <v>500</v>
       </c>
       <c r="G30">
-        <v>160.5</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1483,156 +1483,165 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <v>483</v>
+        <v>170</v>
       </c>
       <c r="G31">
-        <v>471</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
+      </c>
+      <c r="F32">
+        <v>147</v>
+      </c>
+      <c r="G32">
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="G33">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>1050</v>
+        <v>157</v>
+      </c>
+      <c r="G34">
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>1100</v>
+        <v>125</v>
       </c>
       <c r="G35">
-        <v>990</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>261</v>
+        <v>142</v>
+      </c>
+      <c r="G36">
+        <v>160.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37">
-        <v>155</v>
+        <v>483</v>
+      </c>
+      <c r="G37">
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>145</v>
-      </c>
-      <c r="G38">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1640,22 +1649,22 @@
         <v>44517</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="G39">
-        <v>320</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1663,22 +1672,19 @@
         <v>44517</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>87</v>
-      </c>
-      <c r="G40">
-        <v>96</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1686,10 +1692,10 @@
         <v>44517</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1698,182 +1704,176 @@
         <v>8</v>
       </c>
       <c r="F41">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="G41">
-        <v>180</v>
+        <v>990</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>1145</v>
-      </c>
-      <c r="G42">
-        <v>1160</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F43">
-        <v>118</v>
-      </c>
-      <c r="G43">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="G44">
-        <v>357</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>685</v>
+        <v>327</v>
       </c>
       <c r="G45">
-        <v>558</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="G46">
-        <v>165</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G47">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48">
-        <v>136</v>
+        <v>1145</v>
       </c>
       <c r="G48">
-        <v>180</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1882,21 +1882,21 @@
         <v>5</v>
       </c>
       <c r="F49">
-        <v>2.7</v>
+        <v>118</v>
       </c>
       <c r="G49">
-        <v>2.8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1905,18 +1905,18 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="G50">
-        <v>54</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
@@ -1928,10 +1928,10 @@
         <v>5</v>
       </c>
       <c r="F51">
-        <v>228</v>
+        <v>685</v>
       </c>
       <c r="G51">
-        <v>206</v>
+        <v>558</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1939,22 +1939,22 @@
         <v>44515</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G52">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1962,22 +1962,22 @@
         <v>44515</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F53">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="G53">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1985,16 +1985,22 @@
         <v>44515</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>136</v>
+      </c>
+      <c r="G54">
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2002,10 +2008,10 @@
         <v>44515</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2014,10 +2020,10 @@
         <v>5</v>
       </c>
       <c r="F55">
-        <v>960</v>
+        <v>2.7</v>
       </c>
       <c r="G55">
-        <v>800</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2025,10 +2031,10 @@
         <v>44515</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2037,10 +2043,10 @@
         <v>8</v>
       </c>
       <c r="F56">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G56">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2048,22 +2054,22 @@
         <v>44515</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F57">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="G57">
-        <v>65</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2071,10 +2077,10 @@
         <v>44515</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2083,10 +2089,10 @@
         <v>8</v>
       </c>
       <c r="F58">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G58">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2094,79 +2100,73 @@
         <v>44515</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="G59">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
-      </c>
-      <c r="F60">
-        <v>155</v>
-      </c>
-      <c r="G60">
-        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>90</v>
+        <v>960</v>
       </c>
       <c r="G61">
-        <v>85</v>
+        <v>800</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2175,21 +2175,21 @@
         <v>8</v>
       </c>
       <c r="F62">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="G62">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2198,56 +2198,56 @@
         <v>8</v>
       </c>
       <c r="F63">
-        <v>697</v>
+        <v>51</v>
       </c>
       <c r="G63">
-        <v>640</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
         <v>32</v>
       </c>
-      <c r="C64" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64">
-        <v>197</v>
-      </c>
       <c r="G64">
-        <v>185</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F65">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="G65">
-        <v>220</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2255,22 +2255,22 @@
         <v>44512</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G66">
-        <v>205</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2278,10 +2278,10 @@
         <v>44512</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2290,64 +2290,67 @@
         <v>8</v>
       </c>
       <c r="F67">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G67">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="G68">
-        <v>295</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F69">
-        <v>310</v>
+        <v>697</v>
+      </c>
+      <c r="G69">
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2356,133 +2359,130 @@
         <v>8</v>
       </c>
       <c r="F70">
-        <v>360</v>
+        <v>197</v>
       </c>
       <c r="G70">
-        <v>320</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F71">
-        <v>990</v>
+        <v>235</v>
       </c>
       <c r="G71">
-        <v>930</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
       </c>
       <c r="F72">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="G72">
-        <v>145</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
         <v>31</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73">
-        <v>51</v>
-      </c>
       <c r="G73">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G74">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F75">
-        <v>175</v>
-      </c>
-      <c r="G75">
-        <v>190</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
         <v>21</v>
@@ -2494,18 +2494,18 @@
         <v>8</v>
       </c>
       <c r="F76">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="G76">
-        <v>30</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -2517,21 +2517,21 @@
         <v>8</v>
       </c>
       <c r="F77">
-        <v>497</v>
+        <v>990</v>
       </c>
       <c r="G77">
-        <v>512</v>
+        <v>930</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D78">
         <v>-1</v>
@@ -2540,10 +2540,10 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="G78">
-        <v>340</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2551,22 +2551,22 @@
         <v>44510</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>92.5</v>
+        <v>51</v>
       </c>
       <c r="G79">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2574,7 +2574,7 @@
         <v>44510</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
         <v>45</v>
@@ -2583,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="G80">
-        <v>89</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2597,22 +2597,22 @@
         <v>44510</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F81">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="G81">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2620,10 +2620,10 @@
         <v>44510</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>8</v>
       </c>
       <c r="F82">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="G82">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2643,10 +2643,10 @@
         <v>44510</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2655,84 +2655,87 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>160</v>
+        <v>497</v>
       </c>
       <c r="G83">
-        <v>140</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F84">
-        <v>240</v>
+        <v>360</v>
+      </c>
+      <c r="G84">
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
         <v>11</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85">
-        <v>211</v>
+        <v>92.5</v>
       </c>
       <c r="G85">
-        <v>222</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F86">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="G86">
-        <v>231</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -2741,24 +2744,24 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F87">
-        <v>575</v>
+        <v>139</v>
       </c>
       <c r="G87">
-        <v>545</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2767,110 +2770,110 @@
         <v>8</v>
       </c>
       <c r="F88">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="G88">
-        <v>310</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>44505</v>
+        <v>44510</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F89">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="G89">
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F90">
-        <v>180</v>
-      </c>
-      <c r="G90">
-        <v>175</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F91">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="G91">
-        <v>40</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F92">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="G92">
-        <v>46</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2879,21 +2882,21 @@
         <v>8</v>
       </c>
       <c r="F93">
-        <v>66</v>
+        <v>575</v>
       </c>
       <c r="G93">
-        <v>60</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2902,10 +2905,10 @@
         <v>8</v>
       </c>
       <c r="F94">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="G94">
-        <v>55</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2913,22 +2916,19 @@
         <v>44505</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
       </c>
       <c r="F95">
-        <v>60</v>
-      </c>
-      <c r="G95">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2936,22 +2936,22 @@
         <v>44505</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F96">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="G96">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2959,7 +2959,7 @@
         <v>44505</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
@@ -2971,10 +2971,10 @@
         <v>5</v>
       </c>
       <c r="F97">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="G97">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2982,22 +2982,22 @@
         <v>44505</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F98">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="G98">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,10 +3005,10 @@
         <v>44505</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3017,41 +3017,44 @@
         <v>8</v>
       </c>
       <c r="F99">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="G99">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F100">
-        <v>123</v>
+        <v>68</v>
+      </c>
+      <c r="G100">
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3060,41 +3063,41 @@
         <v>5</v>
       </c>
       <c r="F101">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G101">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F102">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="G102">
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -3106,41 +3109,44 @@
         <v>5</v>
       </c>
       <c r="F103">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="G103">
-        <v>270</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="s">
         <v>5</v>
       </c>
       <c r="F104">
-        <v>272</v>
+        <v>120</v>
+      </c>
+      <c r="G104">
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3149,90 +3155,87 @@
         <v>8</v>
       </c>
       <c r="F105">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="G105">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F106">
-        <v>180</v>
-      </c>
-      <c r="G106">
-        <v>176</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B107" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F107">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="G107">
-        <v>270</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B108" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="G108">
-        <v>125</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3241,10 +3244,10 @@
         <v>5</v>
       </c>
       <c r="F109">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="G109">
-        <v>130</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3252,22 +3255,19 @@
         <v>44503</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F110">
-        <v>123</v>
-      </c>
-      <c r="G110">
-        <v>120</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,22 +3275,22 @@
         <v>44503</v>
       </c>
       <c r="B111" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F111">
-        <v>540</v>
+        <v>95</v>
       </c>
       <c r="G111">
-        <v>530</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3298,10 +3298,10 @@
         <v>44503</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3310,133 +3310,136 @@
         <v>8</v>
       </c>
       <c r="F112">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G112">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B113" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F113">
-        <v>59</v>
+        <v>290</v>
+      </c>
+      <c r="G113">
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F114">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G114">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C115" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F115">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="G115">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B116" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F116">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="G116">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F117">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G117">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3445,41 +3448,41 @@
         <v>8</v>
       </c>
       <c r="F118">
-        <v>810</v>
+        <v>140</v>
       </c>
       <c r="G118">
-        <v>760</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B119" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C119" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D119">
         <v>-1</v>
       </c>
       <c r="E119" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F119">
-        <v>360</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3488,87 +3491,90 @@
         <v>8</v>
       </c>
       <c r="F120">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="G120">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B121" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
       </c>
       <c r="F121">
-        <v>151</v>
+        <v>88</v>
+      </c>
+      <c r="G121">
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D122">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F122">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="G122">
-        <v>208</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B123" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C123" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F123">
-        <v>204</v>
+        <v>550</v>
       </c>
       <c r="G123">
-        <v>192</v>
+        <v>540</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3577,10 +3583,10 @@
         <v>8</v>
       </c>
       <c r="F124">
-        <v>175</v>
+        <v>810</v>
       </c>
       <c r="G124">
-        <v>192</v>
+        <v>760</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3588,22 +3594,19 @@
         <v>44501</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C125" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E125" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F125">
-        <v>146</v>
-      </c>
-      <c r="G125">
-        <v>135</v>
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3611,22 +3614,22 @@
         <v>44501</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F126">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="G126">
-        <v>85</v>
+        <v>206</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3634,22 +3637,19 @@
         <v>44501</v>
       </c>
       <c r="B127" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F127">
-        <v>85</v>
-      </c>
-      <c r="G127">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3657,22 +3657,22 @@
         <v>44501</v>
       </c>
       <c r="B128" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F128">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="G128">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3680,21 +3680,159 @@
         <v>44501</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C129" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F129">
         <v>204</v>
       </c>
       <c r="G129">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B130" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>175</v>
+      </c>
+      <c r="G130">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B131" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>90</v>
+      </c>
+      <c r="F131">
+        <v>146</v>
+      </c>
+      <c r="G131">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>90</v>
+      </c>
+      <c r="F132">
+        <v>88</v>
+      </c>
+      <c r="G132">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B133" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>85</v>
+      </c>
+      <c r="G133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B134" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134">
+        <v>210</v>
+      </c>
+      <c r="G134">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B135" t="s">
+        <v>104</v>
+      </c>
+      <c r="C135" t="s">
+        <v>105</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>204</v>
+      </c>
+      <c r="G135">
         <v>210</v>
       </c>
     </row>

--- a/Analyst rating changes.xlsx
+++ b/Analyst rating changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Analyst-sentiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{50EA8B96-A233-42DC-AC20-99E1B30845A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98545585-8B84-4965-8A9B-75844AB092A3}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{50EA8B96-A233-42DC-AC20-99E1B30845A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07832F45-6272-4B94-9AC5-94452F7F3209}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -424,6 +424,15 @@
   </si>
   <si>
     <t>IMP A SDB</t>
+  </si>
+  <si>
+    <t>EQT</t>
+  </si>
+  <si>
+    <t>STORY B</t>
+  </si>
+  <si>
+    <t>ISS</t>
   </si>
 </sst>
 </file>
@@ -776,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C20D-DE11-9641-971F-C3D4179070FE}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,33 +823,27 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>130</v>
-      </c>
-      <c r="G2">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -852,242 +855,242 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>155</v>
+        <v>340</v>
       </c>
       <c r="G3">
-        <v>150</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="G4">
-        <v>240</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="G5">
-        <v>135</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>612</v>
+      </c>
+      <c r="G6">
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>510</v>
+        <v>204</v>
+      </c>
+      <c r="G7">
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>130</v>
+      </c>
+      <c r="G8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>155</v>
+      </c>
+      <c r="G9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>965.2</v>
-      </c>
-      <c r="G8">
-        <v>822.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>53.34</v>
-      </c>
-      <c r="G9">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>162.56</v>
+        <v>285</v>
       </c>
       <c r="G10">
-        <v>166.624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="G11">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12">
-        <v>105</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13">
-        <v>274</v>
-      </c>
-      <c r="G13">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44524</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1096,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>97</v>
+        <v>965.2</v>
       </c>
       <c r="G14">
-        <v>87</v>
+        <v>822.96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1110,22 +1113,22 @@
         <v>44524</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>340</v>
+        <v>53.34</v>
       </c>
       <c r="G15">
-        <v>270</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1133,22 +1136,22 @@
         <v>44524</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16">
-        <v>185</v>
+        <v>162.56</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>166.624</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1156,239 +1159,242 @@
         <v>44524</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F17">
-        <v>435</v>
+        <v>310</v>
       </c>
       <c r="G17">
-        <v>370</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>105</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>274</v>
+      </c>
+      <c r="G19">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>97</v>
+      </c>
+      <c r="G20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>340</v>
+      </c>
+      <c r="G21">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>185</v>
+      </c>
+      <c r="G22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>435</v>
+      </c>
+      <c r="G23">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>44523</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="D18">
+      <c r="D24">
         <v>-1</v>
       </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <f>10.5*7.08</f>
         <v>74.34</v>
       </c>
-      <c r="G18">
+      <c r="G24">
         <f>12.5*7.08</f>
         <v>88.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>44523</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
         <v>477</v>
       </c>
-      <c r="G19">
+      <c r="G25">
         <v>483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>128</v>
-      </c>
-      <c r="G20">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>82</v>
-      </c>
-      <c r="G22">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23">
-        <v>310</v>
-      </c>
-      <c r="G23">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24">
-        <v>370</v>
-      </c>
-      <c r="G24">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>1145.7</v>
-      </c>
-      <c r="G25">
-        <v>1181.8800000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>128</v>
+      </c>
+      <c r="G26">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1397,21 +1403,21 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G27">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1420,61 +1426,67 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="G28">
-        <v>185</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>310</v>
+      </c>
+      <c r="G29">
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="G30">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1483,64 +1495,61 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <v>170</v>
+        <v>1145.7</v>
       </c>
       <c r="G31">
-        <v>160</v>
+        <v>1181.8800000000001</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>147</v>
-      </c>
-      <c r="G32">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="G33">
-        <v>190</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1552,67 +1561,61 @@
         <v>8</v>
       </c>
       <c r="F34">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="G34">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
-      </c>
-      <c r="F35">
-        <v>125</v>
-      </c>
-      <c r="G35">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>142</v>
+        <v>500</v>
       </c>
       <c r="G36">
-        <v>160.5</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1621,156 +1624,165 @@
         <v>8</v>
       </c>
       <c r="F37">
-        <v>483</v>
+        <v>170</v>
       </c>
       <c r="G37">
-        <v>471</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
+      </c>
+      <c r="F38">
+        <v>147</v>
+      </c>
+      <c r="G38">
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="G39">
-        <v>87</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>1050</v>
+        <v>157</v>
+      </c>
+      <c r="G40">
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>1100</v>
+        <v>125</v>
       </c>
       <c r="G41">
-        <v>990</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>261</v>
+        <v>142</v>
+      </c>
+      <c r="G42">
+        <v>160.5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43">
-        <v>155</v>
+        <v>483</v>
+      </c>
+      <c r="G43">
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>145</v>
-      </c>
-      <c r="G44">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1778,22 +1790,22 @@
         <v>44517</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="G45">
-        <v>320</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,22 +1813,19 @@
         <v>44517</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46">
-        <v>87</v>
-      </c>
-      <c r="G46">
-        <v>96</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1824,10 +1833,10 @@
         <v>44517</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1836,182 +1845,176 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="G47">
-        <v>180</v>
+        <v>990</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F48">
-        <v>1145</v>
-      </c>
-      <c r="G48">
-        <v>1160</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F49">
-        <v>118</v>
-      </c>
-      <c r="G49">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="G50">
-        <v>357</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>685</v>
+        <v>327</v>
       </c>
       <c r="G51">
-        <v>558</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="G52">
-        <v>165</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F53">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G53">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>136</v>
+        <v>1145</v>
       </c>
       <c r="G54">
-        <v>180</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2020,21 +2023,21 @@
         <v>5</v>
       </c>
       <c r="F55">
-        <v>2.7</v>
+        <v>118</v>
       </c>
       <c r="G55">
-        <v>2.8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2043,18 +2046,18 @@
         <v>8</v>
       </c>
       <c r="F56">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="G56">
-        <v>54</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
         <v>21</v>
@@ -2066,10 +2069,10 @@
         <v>5</v>
       </c>
       <c r="F57">
-        <v>228</v>
+        <v>685</v>
       </c>
       <c r="G57">
-        <v>206</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2077,22 +2080,22 @@
         <v>44515</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
       <c r="F58">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G58">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2100,22 +2103,22 @@
         <v>44515</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F59">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="G59">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2123,16 +2126,22 @@
         <v>44515</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>136</v>
+      </c>
+      <c r="G60">
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2140,10 +2149,10 @@
         <v>44515</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2152,10 +2161,10 @@
         <v>5</v>
       </c>
       <c r="F61">
-        <v>960</v>
+        <v>2.7</v>
       </c>
       <c r="G61">
-        <v>800</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2163,10 +2172,10 @@
         <v>44515</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2175,10 +2184,10 @@
         <v>8</v>
       </c>
       <c r="F62">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G62">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2186,22 +2195,22 @@
         <v>44515</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="G63">
-        <v>65</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2209,10 +2218,10 @@
         <v>44515</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2221,10 +2230,10 @@
         <v>8</v>
       </c>
       <c r="F64">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G64">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2232,79 +2241,73 @@
         <v>44515</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="G65">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
-      </c>
-      <c r="F66">
-        <v>155</v>
-      </c>
-      <c r="G66">
-        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>90</v>
+        <v>960</v>
       </c>
       <c r="G67">
-        <v>85</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2313,21 +2316,21 @@
         <v>8</v>
       </c>
       <c r="F68">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="G68">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2336,56 +2339,56 @@
         <v>8</v>
       </c>
       <c r="F69">
-        <v>697</v>
+        <v>51</v>
       </c>
       <c r="G69">
-        <v>640</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
         <v>32</v>
       </c>
-      <c r="C70" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70">
-        <v>197</v>
-      </c>
       <c r="G70">
-        <v>185</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F71">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="G71">
-        <v>220</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,22 +2396,22 @@
         <v>44512</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="G72">
-        <v>205</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2416,10 +2419,10 @@
         <v>44512</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2428,64 +2431,67 @@
         <v>8</v>
       </c>
       <c r="F73">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G73">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
       </c>
       <c r="F74">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="G74">
-        <v>295</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F75">
-        <v>310</v>
+        <v>697</v>
+      </c>
+      <c r="G75">
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2494,133 +2500,130 @@
         <v>8</v>
       </c>
       <c r="F76">
-        <v>360</v>
+        <v>197</v>
       </c>
       <c r="G76">
-        <v>320</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>990</v>
+        <v>235</v>
       </c>
       <c r="G77">
-        <v>930</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
       </c>
       <c r="F78">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="G78">
-        <v>145</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
         <v>31</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79">
-        <v>51</v>
-      </c>
       <c r="G79">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G80">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F81">
-        <v>175</v>
-      </c>
-      <c r="G81">
-        <v>190</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
         <v>21</v>
@@ -2632,18 +2635,18 @@
         <v>8</v>
       </c>
       <c r="F82">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
@@ -2655,21 +2658,21 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>497</v>
+        <v>990</v>
       </c>
       <c r="G83">
-        <v>512</v>
+        <v>930</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D84">
         <v>-1</v>
@@ -2678,10 +2681,10 @@
         <v>5</v>
       </c>
       <c r="F84">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="G84">
-        <v>340</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2689,22 +2692,22 @@
         <v>44510</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>92.5</v>
+        <v>51</v>
       </c>
       <c r="G85">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,7 +2715,7 @@
         <v>44510</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
         <v>45</v>
@@ -2721,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F86">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="G86">
-        <v>89</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,22 +2738,22 @@
         <v>44510</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="G87">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2758,10 +2761,10 @@
         <v>44510</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2770,10 +2773,10 @@
         <v>8</v>
       </c>
       <c r="F88">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="G88">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2781,10 +2784,10 @@
         <v>44510</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2793,84 +2796,87 @@
         <v>8</v>
       </c>
       <c r="F89">
-        <v>160</v>
+        <v>497</v>
       </c>
       <c r="G89">
-        <v>140</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F90">
-        <v>240</v>
+        <v>360</v>
+      </c>
+      <c r="G90">
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
       <c r="F91">
-        <v>211</v>
+        <v>92.5</v>
       </c>
       <c r="G91">
-        <v>222</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F92">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="G92">
-        <v>231</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -2879,24 +2885,24 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>575</v>
+        <v>139</v>
       </c>
       <c r="G93">
-        <v>545</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2905,110 +2911,110 @@
         <v>8</v>
       </c>
       <c r="F94">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="G94">
-        <v>310</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>44505</v>
+        <v>44510</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C95" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="G95">
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F96">
-        <v>180</v>
-      </c>
-      <c r="G96">
-        <v>175</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B97" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F97">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="G97">
-        <v>40</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F98">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="G98">
-        <v>46</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3017,21 +3023,21 @@
         <v>8</v>
       </c>
       <c r="F99">
-        <v>66</v>
+        <v>575</v>
       </c>
       <c r="G99">
-        <v>60</v>
+        <v>545</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3040,10 +3046,10 @@
         <v>8</v>
       </c>
       <c r="F100">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="G100">
-        <v>55</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3051,22 +3057,19 @@
         <v>44505</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
       </c>
       <c r="F101">
-        <v>60</v>
-      </c>
-      <c r="G101">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,22 +3077,22 @@
         <v>44505</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F102">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="G102">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3097,7 +3100,7 @@
         <v>44505</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -3109,10 +3112,10 @@
         <v>5</v>
       </c>
       <c r="F103">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="G103">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3120,22 +3123,22 @@
         <v>44505</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="G104">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3143,10 +3146,10 @@
         <v>44505</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3155,41 +3158,44 @@
         <v>8</v>
       </c>
       <c r="F105">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="G105">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F106">
-        <v>123</v>
+        <v>68</v>
+      </c>
+      <c r="G106">
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3198,41 +3204,41 @@
         <v>5</v>
       </c>
       <c r="F107">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G107">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F108">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="G108">
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
@@ -3244,41 +3250,44 @@
         <v>5</v>
       </c>
       <c r="F109">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="G109">
-        <v>270</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
       </c>
       <c r="F110">
-        <v>272</v>
+        <v>120</v>
+      </c>
+      <c r="G110">
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3287,90 +3296,87 @@
         <v>8</v>
       </c>
       <c r="F111">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="G111">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B112" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F112">
-        <v>180</v>
-      </c>
-      <c r="G112">
-        <v>176</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B113" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F113">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="G113">
-        <v>270</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F114">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="G114">
-        <v>125</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B115" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C115" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3379,10 +3385,10 @@
         <v>5</v>
       </c>
       <c r="F115">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="G115">
-        <v>130</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3390,22 +3396,19 @@
         <v>44503</v>
       </c>
       <c r="B116" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F116">
-        <v>123</v>
-      </c>
-      <c r="G116">
-        <v>120</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3413,22 +3416,22 @@
         <v>44503</v>
       </c>
       <c r="B117" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C117" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F117">
-        <v>540</v>
+        <v>95</v>
       </c>
       <c r="G117">
-        <v>530</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3436,10 +3439,10 @@
         <v>44503</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3448,133 +3451,136 @@
         <v>8</v>
       </c>
       <c r="F118">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="G118">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B119" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D119">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F119">
-        <v>59</v>
+        <v>290</v>
+      </c>
+      <c r="G119">
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B120" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F120">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G120">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C121" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F121">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="G121">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B122" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C122" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F122">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="G122">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B123" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F123">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G123">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3583,41 +3589,41 @@
         <v>8</v>
       </c>
       <c r="F124">
-        <v>810</v>
+        <v>140</v>
       </c>
       <c r="G124">
-        <v>760</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B125" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D125">
         <v>-1</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F125">
-        <v>360</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3626,87 +3632,90 @@
         <v>8</v>
       </c>
       <c r="F126">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="G126">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
       </c>
       <c r="F127">
-        <v>151</v>
+        <v>88</v>
+      </c>
+      <c r="G127">
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D128">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F128">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="G128">
-        <v>208</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C129" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F129">
-        <v>204</v>
+        <v>550</v>
       </c>
       <c r="G129">
-        <v>192</v>
+        <v>540</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B130" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3715,10 +3724,10 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>175</v>
+        <v>810</v>
       </c>
       <c r="G130">
-        <v>192</v>
+        <v>760</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3726,22 +3735,19 @@
         <v>44501</v>
       </c>
       <c r="B131" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C131" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E131" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F131">
-        <v>146</v>
-      </c>
-      <c r="G131">
-        <v>135</v>
+        <v>360</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3749,22 +3755,22 @@
         <v>44501</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C132" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F132">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="G132">
-        <v>85</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3772,22 +3778,19 @@
         <v>44501</v>
       </c>
       <c r="B133" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C133" t="s">
         <v>23</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F133">
-        <v>85</v>
-      </c>
-      <c r="G133">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3795,22 +3798,22 @@
         <v>44501</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F134">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="G134">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3818,21 +3821,159 @@
         <v>44501</v>
       </c>
       <c r="B135" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C135" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F135">
         <v>204</v>
       </c>
       <c r="G135">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B136" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136">
+        <v>175</v>
+      </c>
+      <c r="G136">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B137" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>90</v>
+      </c>
+      <c r="F137">
+        <v>146</v>
+      </c>
+      <c r="G137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>90</v>
+      </c>
+      <c r="F138">
+        <v>88</v>
+      </c>
+      <c r="G138">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139">
+        <v>85</v>
+      </c>
+      <c r="G139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B140" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140">
+        <v>210</v>
+      </c>
+      <c r="G140">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B141" t="s">
+        <v>104</v>
+      </c>
+      <c r="C141" t="s">
+        <v>105</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>204</v>
+      </c>
+      <c r="G141">
         <v>210</v>
       </c>
     </row>

--- a/Analyst rating changes.xlsx
+++ b/Analyst rating changes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Analyst-sentiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Analyst-sentiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3481724E-9A6D-4ABC-A724-DF864C107CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{3481724E-9A6D-4ABC-A724-DF864C107CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F702A5F2-6E39-4FF7-BC5C-74DED7B4E761}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="3480" windowWidth="35265" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>CAST</t>
+  </si>
+  <si>
+    <t>SOBI</t>
+  </si>
+  <si>
+    <t>SSAB A</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -821,20 +827,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C20D-DE11-9641-971F-C3D4179070FE}">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -857,59 +863,62 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>181</v>
+      </c>
+      <c r="G2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>300</v>
-      </c>
-      <c r="G2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>44533</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44533</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -917,90 +926,84 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="G4">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44533</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44533</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>310</v>
-      </c>
-      <c r="G7">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44533</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1009,90 +1012,90 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44533</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>348</v>
+      </c>
+      <c r="G10">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
         <v>134</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>635</v>
-      </c>
-      <c r="G9">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>44532</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>160</v>
-      </c>
-      <c r="G10">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>44532</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
       <c r="D11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F11">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="G11">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B12" t="s">
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1101,67 +1104,67 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="G12">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B13" t="s">
         <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="G13">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44532</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="G14">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44532</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1170,18 +1173,18 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="G15">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44532</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
@@ -1190,139 +1193,139 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16">
+        <v>240</v>
+      </c>
+      <c r="G16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>555</v>
+      </c>
+      <c r="G17">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>290</v>
+      </c>
+      <c r="G18">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
         <v>265</v>
       </c>
-      <c r="G16">
+      <c r="G19">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>500</v>
-      </c>
-      <c r="G17">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>85</v>
-      </c>
-      <c r="G18">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>175</v>
-      </c>
-      <c r="G19">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>265</v>
       </c>
       <c r="G20">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44531</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="G21">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44531</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1331,67 +1334,67 @@
         <v>8</v>
       </c>
       <c r="F22">
+        <v>85</v>
+      </c>
+      <c r="G22">
         <v>86</v>
       </c>
-      <c r="G22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44531</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>175</v>
+      </c>
+      <c r="G23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>57</v>
       </c>
-      <c r="F23">
-        <v>220</v>
-      </c>
-      <c r="G23">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
       <c r="F24">
-        <v>66</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1400,44 +1403,44 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="G25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1446,305 +1449,311 @@
         <v>57</v>
       </c>
       <c r="F27">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="G27">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44530</v>
       </c>
       <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>66</v>
+      </c>
+      <c r="G28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>81</v>
+      </c>
+      <c r="G31">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B32" t="s">
         <v>87</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>70</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32">
         <v>145</v>
       </c>
-      <c r="G28">
+      <c r="G32">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>340</v>
-      </c>
-      <c r="G30">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31">
-        <v>360</v>
-      </c>
-      <c r="G31">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32">
-        <v>-1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>360</v>
-      </c>
-      <c r="G32">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44529</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>612</v>
-      </c>
-      <c r="G33">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44529</v>
       </c>
       <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>340</v>
+      </c>
+      <c r="G34">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>360</v>
+      </c>
+      <c r="G35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>360</v>
+      </c>
+      <c r="G36">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>612</v>
+      </c>
+      <c r="G37">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>-1</v>
       </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34">
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38">
         <v>204</v>
       </c>
-      <c r="G34">
+      <c r="G38">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35">
-        <v>130</v>
-      </c>
-      <c r="G35">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36">
-        <v>155</v>
-      </c>
-      <c r="G36">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>285</v>
-      </c>
-      <c r="G37">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38">
-        <v>155</v>
-      </c>
-      <c r="G38">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44525</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="G39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44525</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="G40">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -1756,87 +1765,81 @@
         <v>5</v>
       </c>
       <c r="F41">
-        <v>965.2</v>
+        <v>285</v>
       </c>
       <c r="G41">
-        <v>822.96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>53.34</v>
+        <v>155</v>
       </c>
       <c r="G42">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>162.56</v>
-      </c>
-      <c r="G43">
-        <v>166.624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>310</v>
-      </c>
-      <c r="G44">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44524</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -1848,21 +1851,21 @@
         <v>5</v>
       </c>
       <c r="F45">
-        <v>105</v>
+        <v>965.2</v>
       </c>
       <c r="G45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>822.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44524</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1871,21 +1874,21 @@
         <v>5</v>
       </c>
       <c r="F46">
-        <v>274</v>
+        <v>53.34</v>
       </c>
       <c r="G46">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44524</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1894,689 +1897,695 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>97</v>
+        <v>162.56</v>
       </c>
       <c r="G47">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>166.624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44524</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F48">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="G48">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44524</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="G49">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44524</v>
       </c>
       <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>274</v>
+      </c>
+      <c r="G50">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>97</v>
+      </c>
+      <c r="G51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>340</v>
+      </c>
+      <c r="G52">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>185</v>
+      </c>
+      <c r="G53">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B54" t="s">
         <v>72</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C54" t="s">
         <v>17</v>
       </c>
-      <c r="D50">
+      <c r="D54">
         <v>1</v>
       </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50">
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
         <v>435</v>
       </c>
-      <c r="G50">
+      <c r="G54">
         <v>370</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>44523</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>118</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C55" t="s">
         <v>119</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <v>-1</v>
       </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51">
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55">
         <f>10.5*7.08</f>
         <v>74.34</v>
       </c>
-      <c r="G51">
+      <c r="G55">
         <f>12.5*7.08</f>
         <v>88.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52">
-        <v>477</v>
-      </c>
-      <c r="G52">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53">
-        <v>128</v>
-      </c>
-      <c r="G53">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
-      <c r="G54">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55">
-        <v>82</v>
-      </c>
-      <c r="G55">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44523</v>
       </c>
       <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>477</v>
+      </c>
+      <c r="G56">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>128</v>
+      </c>
+      <c r="G57">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>82</v>
+      </c>
+      <c r="G59">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B60" t="s">
         <v>13</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C60" t="s">
         <v>21</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
         <v>310</v>
       </c>
-      <c r="G56">
+      <c r="G60">
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>370</v>
-      </c>
-      <c r="G57">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58">
-        <v>1145.7</v>
-      </c>
-      <c r="G58">
-        <v>1181.8800000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B59" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60">
-        <v>126</v>
-      </c>
-      <c r="G60">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44522</v>
       </c>
       <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>370</v>
+      </c>
+      <c r="G61">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>1145.7</v>
+      </c>
+      <c r="G62">
+        <v>1181.8800000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>126</v>
+      </c>
+      <c r="G64">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B65" t="s">
         <v>67</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
         <v>200</v>
       </c>
-      <c r="G61">
+      <c r="G65">
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B62" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62">
-        <v>-1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63">
-        <v>-1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63">
-        <v>500</v>
-      </c>
-      <c r="G63">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B64" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64">
-        <v>170</v>
-      </c>
-      <c r="G64">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B65" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65">
-        <v>147</v>
-      </c>
-      <c r="G65">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44519</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>-1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>500</v>
+      </c>
+      <c r="G67">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>170</v>
+      </c>
+      <c r="G68">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>147</v>
+      </c>
+      <c r="G69">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
         <v>199</v>
       </c>
-      <c r="G66">
+      <c r="G70">
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67">
-        <v>157</v>
-      </c>
-      <c r="G67">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68">
-        <v>125</v>
-      </c>
-      <c r="G68">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69">
-        <v>142</v>
-      </c>
-      <c r="G69">
-        <v>160.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70">
-        <v>483</v>
-      </c>
-      <c r="G70">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44518</v>
       </c>
       <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>157</v>
+      </c>
+      <c r="G71">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>125</v>
+      </c>
+      <c r="G72">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>142</v>
+      </c>
+      <c r="G73">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>483</v>
+      </c>
+      <c r="G74">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B75" t="s">
         <v>25</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C75" t="s">
         <v>30</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72">
-        <v>-1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72">
-        <v>72</v>
-      </c>
-      <c r="G72">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73">
-        <v>-1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74">
-        <v>1100</v>
-      </c>
-      <c r="G74">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44517</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F76">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="G76">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44517</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F77">
-        <v>145</v>
-      </c>
-      <c r="G77">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44517</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2585,110 +2594,104 @@
         <v>8</v>
       </c>
       <c r="F78">
-        <v>327</v>
+        <v>1100</v>
       </c>
       <c r="G78">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44517</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F79">
-        <v>87</v>
-      </c>
-      <c r="G79">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44517</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
       <c r="F80">
-        <v>150</v>
-      </c>
-      <c r="G80">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>1145</v>
+        <v>145</v>
       </c>
       <c r="G81">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F82">
-        <v>118</v>
+        <v>327</v>
       </c>
       <c r="G82">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -2700,18 +2703,18 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>380</v>
+        <v>87</v>
       </c>
       <c r="G83">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
         <v>21</v>
@@ -2720,93 +2723,93 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F84">
-        <v>685</v>
+        <v>150</v>
       </c>
       <c r="G84">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>23</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85">
-        <v>165</v>
+        <v>1145</v>
       </c>
       <c r="G85">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
         <v>23</v>
       </c>
-      <c r="C86" t="s">
-        <v>33</v>
-      </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F86">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G86">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="G87">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2815,90 +2818,90 @@
         <v>5</v>
       </c>
       <c r="F88">
-        <v>2.7</v>
+        <v>685</v>
       </c>
       <c r="G88">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44515</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
       </c>
       <c r="F89">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="G89">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44515</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F90">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="G90">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44515</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F91">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="G91">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44515</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2907,38 +2910,44 @@
         <v>5</v>
       </c>
       <c r="F92">
-        <v>103</v>
+        <v>2.7</v>
       </c>
       <c r="G92">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44515</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>70</v>
+      </c>
+      <c r="G93">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44515</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2947,21 +2956,21 @@
         <v>5</v>
       </c>
       <c r="F94">
-        <v>960</v>
+        <v>228</v>
       </c>
       <c r="G94">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44515</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2970,90 +2979,84 @@
         <v>8</v>
       </c>
       <c r="F95">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="G95">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44515</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="G96">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44515</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
       </c>
-      <c r="F97">
-        <v>32</v>
-      </c>
-      <c r="G97">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44515</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>145</v>
+        <v>960</v>
       </c>
       <c r="G98">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3062,18 +3065,18 @@
         <v>8</v>
       </c>
       <c r="F99">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="G99">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
         <v>45</v>
@@ -3085,21 +3088,21 @@
         <v>8</v>
       </c>
       <c r="F100">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G100">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3108,44 +3111,44 @@
         <v>8</v>
       </c>
       <c r="F101">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G101">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
       </c>
       <c r="F102">
-        <v>697</v>
+        <v>145</v>
       </c>
       <c r="G102">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44512</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3154,64 +3157,64 @@
         <v>8</v>
       </c>
       <c r="F103">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G103">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44512</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="G104">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44512</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F105">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="G105">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44512</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
         <v>44</v>
@@ -3223,271 +3226,271 @@
         <v>8</v>
       </c>
       <c r="F106">
+        <v>697</v>
+      </c>
+      <c r="G106">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107">
+        <v>197</v>
+      </c>
+      <c r="G107">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>235</v>
+      </c>
+      <c r="G108">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B109" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>215</v>
+      </c>
+      <c r="G109">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110">
         <v>31</v>
       </c>
-      <c r="G106">
+      <c r="G110">
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B107" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" t="s">
-        <v>53</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107">
-        <v>340</v>
-      </c>
-      <c r="G107">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B108" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" t="s">
-        <v>56</v>
-      </c>
-      <c r="D108">
-        <v>-1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>57</v>
-      </c>
-      <c r="F108">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B109" t="s">
-        <v>58</v>
-      </c>
-      <c r="C109" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109">
-        <v>360</v>
-      </c>
-      <c r="G109">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110">
-        <v>990</v>
-      </c>
-      <c r="G110">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44511</v>
       </c>
       <c r="B111" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111">
+        <v>340</v>
+      </c>
+      <c r="G111">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112">
+        <v>-1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B113" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <v>360</v>
+      </c>
+      <c r="G113">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114">
+        <v>990</v>
+      </c>
+      <c r="G114">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B115" t="s">
         <v>59</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C115" t="s">
         <v>23</v>
       </c>
-      <c r="D111">
+      <c r="D115">
         <v>-1</v>
       </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111">
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115">
         <v>75</v>
       </c>
-      <c r="G111">
+      <c r="G115">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B112" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" t="s">
-        <v>31</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112">
-        <v>51</v>
-      </c>
-      <c r="G112">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B113" t="s">
-        <v>61</v>
-      </c>
-      <c r="C113" t="s">
-        <v>45</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113">
-        <v>325</v>
-      </c>
-      <c r="G113">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" t="s">
-        <v>45</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114">
-        <v>175</v>
-      </c>
-      <c r="G114">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B115" t="s">
-        <v>63</v>
-      </c>
-      <c r="C115" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115">
-        <v>32</v>
-      </c>
-      <c r="G115">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44510</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F116">
-        <v>497</v>
+        <v>51</v>
       </c>
       <c r="G116">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44510</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D117">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
       </c>
       <c r="F117">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="G117">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44510</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3496,21 +3499,21 @@
         <v>8</v>
       </c>
       <c r="F118">
-        <v>92.5</v>
+        <v>175</v>
       </c>
       <c r="G118">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44510</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C119" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3519,67 +3522,67 @@
         <v>8</v>
       </c>
       <c r="F119">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G119">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44510</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F120">
-        <v>139</v>
+        <v>497</v>
       </c>
       <c r="G120">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44510</v>
       </c>
       <c r="B121" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C121" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F121">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="G121">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44510</v>
       </c>
       <c r="B122" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3588,87 +3591,90 @@
         <v>8</v>
       </c>
       <c r="F122">
-        <v>160</v>
+        <v>92.5</v>
       </c>
       <c r="G122">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
       </c>
       <c r="F123">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="G123">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B124" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F124">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="G124">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F125">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="G125">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B126" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3677,61 +3683,61 @@
         <v>8</v>
       </c>
       <c r="F126">
-        <v>575</v>
+        <v>160</v>
       </c>
       <c r="G126">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44509</v>
       </c>
       <c r="B127" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
       </c>
       <c r="F127">
-        <v>328</v>
-      </c>
-      <c r="G127">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C128" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F128">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="G128">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C129" t="s">
         <v>31</v>
@@ -3743,44 +3749,44 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="G129">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F130">
-        <v>55</v>
+        <v>575</v>
       </c>
       <c r="G130">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B131" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C131" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3789,59 +3795,56 @@
         <v>8</v>
       </c>
       <c r="F131">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="G131">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44505</v>
       </c>
       <c r="B132" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F132">
-        <v>66</v>
-      </c>
-      <c r="G132">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44505</v>
       </c>
       <c r="B133" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C133" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F133">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="G133">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44505</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3858,87 +3861,87 @@
         <v>5</v>
       </c>
       <c r="F134">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G134">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44505</v>
       </c>
       <c r="B135" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F135">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="G135">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44505</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F136">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="G136">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44505</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F137">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="G137">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44505</v>
       </c>
       <c r="B138" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C138" t="s">
         <v>45</v>
@@ -3947,130 +3950,133 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F138">
+        <v>60</v>
+      </c>
+      <c r="G138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B139" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139">
+        <v>210</v>
+      </c>
+      <c r="G139">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140">
+        <v>130</v>
+      </c>
+      <c r="G140">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>120</v>
+      </c>
+      <c r="G141">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B142" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142">
         <v>275</v>
       </c>
-      <c r="G138">
+      <c r="G142">
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>44504</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B143" t="s">
         <v>81</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C143" t="s">
         <v>78</v>
       </c>
-      <c r="D139">
+      <c r="D143">
         <v>-1</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E143" t="s">
         <v>57</v>
       </c>
-      <c r="F139">
+      <c r="F143">
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>44504</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B144" t="s">
         <v>79</v>
-      </c>
-      <c r="C140" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140">
-        <v>115</v>
-      </c>
-      <c r="G140">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
-        <v>44504</v>
-      </c>
-      <c r="B141" t="s">
-        <v>80</v>
-      </c>
-      <c r="C141" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141">
-        <v>350</v>
-      </c>
-      <c r="G141">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <v>44504</v>
-      </c>
-      <c r="B142" t="s">
-        <v>82</v>
-      </c>
-      <c r="C142" t="s">
-        <v>23</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142">
-        <v>281</v>
-      </c>
-      <c r="G142">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B143" t="s">
-        <v>83</v>
-      </c>
-      <c r="C143" t="s">
-        <v>70</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B144" t="s">
-        <v>84</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
@@ -4079,24 +4085,24 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F144">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G144">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B145" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -4105,403 +4111,403 @@
         <v>8</v>
       </c>
       <c r="F145">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="G145">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B146" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F146">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G146">
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44503</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F147">
-        <v>130</v>
-      </c>
-      <c r="G147">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44503</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F148">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G148">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44503</v>
       </c>
       <c r="B149" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C149" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F149">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="G149">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44503</v>
       </c>
       <c r="B150" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C150" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F150">
-        <v>540</v>
+        <v>290</v>
       </c>
       <c r="G150">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44503</v>
       </c>
       <c r="B151" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>57</v>
+      </c>
+      <c r="F151">
+        <v>130</v>
+      </c>
+      <c r="G151">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B152" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152">
+        <v>135</v>
+      </c>
+      <c r="G152">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B153" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>90</v>
+      </c>
+      <c r="F153">
+        <v>123</v>
+      </c>
+      <c r="G153">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B154" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>540</v>
+      </c>
+      <c r="G154">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B155" t="s">
         <v>27</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C155" t="s">
         <v>21</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151">
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155">
         <v>140</v>
       </c>
-      <c r="G151">
+      <c r="G155">
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B152" t="s">
-        <v>92</v>
-      </c>
-      <c r="C152" t="s">
-        <v>33</v>
-      </c>
-      <c r="D152">
-        <v>-1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>34</v>
-      </c>
-      <c r="F152">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B153" t="s">
-        <v>93</v>
-      </c>
-      <c r="C153" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153">
-        <v>75</v>
-      </c>
-      <c r="G153">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B154" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" t="s">
-        <v>94</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154">
-        <v>88</v>
-      </c>
-      <c r="G154">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B155" t="s">
-        <v>95</v>
-      </c>
-      <c r="C155" t="s">
-        <v>44</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155">
-        <v>54</v>
-      </c>
-      <c r="G155">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44502</v>
       </c>
       <c r="B156" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C156" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F156">
-        <v>550</v>
-      </c>
-      <c r="G156">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44502</v>
       </c>
       <c r="B157" t="s">
+        <v>93</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157">
+        <v>75</v>
+      </c>
+      <c r="G157">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158">
+        <v>88</v>
+      </c>
+      <c r="G158">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B159" t="s">
+        <v>95</v>
+      </c>
+      <c r="C159" t="s">
+        <v>44</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159">
+        <v>54</v>
+      </c>
+      <c r="G159">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B160" t="s">
+        <v>96</v>
+      </c>
+      <c r="C160" t="s">
+        <v>44</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>550</v>
+      </c>
+      <c r="G160">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B161" t="s">
         <v>42</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C161" t="s">
         <v>12</v>
       </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157">
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161">
         <v>810</v>
       </c>
-      <c r="G157">
+      <c r="G161">
         <v>760</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B158" t="s">
-        <v>55</v>
-      </c>
-      <c r="C158" t="s">
-        <v>97</v>
-      </c>
-      <c r="D158">
-        <v>-1</v>
-      </c>
-      <c r="E158" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B159" t="s">
-        <v>98</v>
-      </c>
-      <c r="C159" t="s">
-        <v>23</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159">
-        <v>208</v>
-      </c>
-      <c r="G159">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B160" t="s">
-        <v>99</v>
-      </c>
-      <c r="C160" t="s">
-        <v>23</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B161" t="s">
-        <v>99</v>
-      </c>
-      <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161">
-        <v>-2</v>
-      </c>
-      <c r="E161" t="s">
-        <v>57</v>
-      </c>
-      <c r="F161">
-        <v>105</v>
-      </c>
-      <c r="G161">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44501</v>
       </c>
       <c r="B162" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C162" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E162" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F162">
-        <v>204</v>
-      </c>
-      <c r="G162">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44501</v>
       </c>
       <c r="B163" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -4510,90 +4516,87 @@
         <v>8</v>
       </c>
       <c r="F163">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G163">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44501</v>
       </c>
       <c r="B164" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C164" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F164">
-        <v>146</v>
-      </c>
-      <c r="G164">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44501</v>
       </c>
       <c r="B165" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C165" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E165" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F165">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G165">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44501</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F166">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="G166">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44501</v>
       </c>
       <c r="B167" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -4602,32 +4605,124 @@
         <v>8</v>
       </c>
       <c r="F167">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="G167">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44501</v>
       </c>
       <c r="B168" t="s">
+        <v>81</v>
+      </c>
+      <c r="C168" t="s">
+        <v>54</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>90</v>
+      </c>
+      <c r="F168">
+        <v>146</v>
+      </c>
+      <c r="G168">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>90</v>
+      </c>
+      <c r="F169">
+        <v>88</v>
+      </c>
+      <c r="G169">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B170" t="s">
+        <v>102</v>
+      </c>
+      <c r="C170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>85</v>
+      </c>
+      <c r="G170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B171" t="s">
+        <v>103</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171">
+        <v>210</v>
+      </c>
+      <c r="G171">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B172" t="s">
         <v>104</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C172" t="s">
         <v>105</v>
       </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168" t="s">
-        <v>5</v>
-      </c>
-      <c r="F168">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>5</v>
+      </c>
+      <c r="F172">
         <v>204</v>
       </c>
-      <c r="G168">
+      <c r="G172">
         <v>210</v>
       </c>
     </row>

--- a/Analyst rating changes.xlsx
+++ b/Analyst rating changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Analyst-sentiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{3481724E-9A6D-4ABC-A724-DF864C107CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F702A5F2-6E39-4FF7-BC5C-74DED7B4E761}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{3481724E-9A6D-4ABC-A724-DF864C107CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59D2EE6-FC14-4B52-9FD9-A5DA3FB1F4FF}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="3480" windowWidth="35265" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -372,12 +372,6 @@
     <t>SHOT B</t>
   </si>
   <si>
-    <t>Target price (SEK)</t>
-  </si>
-  <si>
-    <t>Target price old (SEK)</t>
-  </si>
-  <si>
     <t>UBS</t>
   </si>
   <si>
@@ -475,6 +469,21 @@
   </si>
   <si>
     <t>SSAB A</t>
+  </si>
+  <si>
+    <t>VWS</t>
+  </si>
+  <si>
+    <t>Target price local ccr</t>
+  </si>
+  <si>
+    <t>Target price old ccr</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>SECARE</t>
   </si>
 </sst>
 </file>
@@ -827,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C20D-DE11-9641-971F-C3D4179070FE}">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,44 +866,44 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2">
-        <v>235</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -903,165 +912,165 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B4" t="s">
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="G4">
-        <v>235</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>235</v>
+        <v>1097.46</v>
+      </c>
+      <c r="G5">
+        <v>1199.97</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>300</v>
-      </c>
-      <c r="G6">
-        <v>270</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B7" t="s">
         <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>165</v>
+        <v>181</v>
+      </c>
+      <c r="G7">
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="G8">
-        <v>230</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="G9">
-        <v>1.19</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>348</v>
-      </c>
-      <c r="G10">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,22 +1078,22 @@
         <v>44533</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G11">
-        <v>310</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1092,22 +1101,19 @@
         <v>44533</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>210</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1115,102 +1121,102 @@
         <v>44533</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>635</v>
+        <v>250</v>
       </c>
       <c r="G13">
-        <v>620</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F14">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>175</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="G15">
-        <v>145</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F16">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="G16">
-        <v>210</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1219,21 +1225,21 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>555</v>
+        <v>210</v>
       </c>
       <c r="G17">
-        <v>545</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1242,10 +1248,10 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <v>290</v>
+        <v>635</v>
       </c>
       <c r="G18">
-        <v>285</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,22 +1259,22 @@
         <v>44532</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="G19">
-        <v>260</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,10 +1282,10 @@
         <v>44532</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1288,113 +1294,113 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="G20">
-        <v>260</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B21" t="s">
         <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G21">
-        <v>480</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>85</v>
+        <v>555</v>
       </c>
       <c r="G22">
-        <v>86</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="G23">
-        <v>150</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>265</v>
       </c>
       <c r="G24">
-        <v>1.2</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1403,10 +1409,10 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="G25">
-        <v>130</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1414,22 +1420,22 @@
         <v>44531</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="G26">
-        <v>80</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,99 +1443,99 @@
         <v>44531</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>235</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>175</v>
+      </c>
+      <c r="G28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B29" t="s">
         <v>136</v>
       </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>66</v>
-      </c>
-      <c r="G28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F29">
-        <v>32</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>115</v>
+      </c>
+      <c r="G30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B31" t="s">
         <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30">
-        <v>64</v>
-      </c>
-      <c r="G30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -1538,61 +1544,67 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>86</v>
+      </c>
+      <c r="G31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>57</v>
       </c>
-      <c r="F31">
-        <v>81</v>
-      </c>
-      <c r="G31">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="F32">
+        <v>220</v>
+      </c>
+      <c r="G32">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>44530</v>
       </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>145</v>
-      </c>
-      <c r="G32">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>44529</v>
-      </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
+      </c>
+      <c r="F33">
+        <v>66</v>
+      </c>
+      <c r="G33">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
@@ -1604,79 +1616,79 @@
         <v>8</v>
       </c>
       <c r="F34">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="G34">
-        <v>320</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F35">
-        <v>360</v>
+        <v>64</v>
       </c>
       <c r="G35">
-        <v>370</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F36">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="G36">
-        <v>370</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>612</v>
+        <v>145</v>
       </c>
       <c r="G37">
-        <v>476</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1684,33 +1696,27 @@
         <v>44529</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
-      </c>
-      <c r="F38">
-        <v>204</v>
-      </c>
-      <c r="G38">
-        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1719,21 +1725,21 @@
         <v>8</v>
       </c>
       <c r="F39">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="G39">
-        <v>120</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1742,44 +1748,44 @@
         <v>8</v>
       </c>
       <c r="F40">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="G40">
-        <v>150</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
       </c>
       <c r="F41">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="G41">
-        <v>240</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1788,30 +1794,33 @@
         <v>8</v>
       </c>
       <c r="F42">
-        <v>155</v>
+        <v>612</v>
       </c>
       <c r="G42">
-        <v>135</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
       </c>
       <c r="F43">
-        <v>35</v>
+        <v>204</v>
+      </c>
+      <c r="G43">
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1819,145 +1828,142 @@
         <v>44525</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>510</v>
+        <v>130</v>
+      </c>
+      <c r="G44">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B45" t="s">
         <v>128</v>
       </c>
       <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>155</v>
+      </c>
+      <c r="G45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
         <v>11</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45">
-        <v>965.2</v>
-      </c>
-      <c r="G45">
-        <v>822.96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>285</v>
+      </c>
+      <c r="G46">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>155</v>
+      </c>
+      <c r="G47">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B49" t="s">
         <v>127</v>
       </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <v>53.34</v>
-      </c>
-      <c r="G46">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>162.56</v>
-      </c>
-      <c r="G47">
-        <v>166.624</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48">
-        <v>310</v>
-      </c>
-      <c r="G48">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B49" t="s">
-        <v>125</v>
-      </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49">
-        <v>105</v>
-      </c>
-      <c r="G49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44524</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1966,10 +1972,10 @@
         <v>5</v>
       </c>
       <c r="F50">
-        <v>274</v>
+        <v>965.2</v>
       </c>
       <c r="G50">
-        <v>165</v>
+        <v>822.96</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,22 +1983,22 @@
         <v>44524</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>97</v>
+        <v>53.34</v>
       </c>
       <c r="G51">
-        <v>87</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,22 +2006,22 @@
         <v>44524</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52">
-        <v>340</v>
+        <v>162.56</v>
       </c>
       <c r="G52">
-        <v>270</v>
+        <v>166.624</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,22 +2029,22 @@
         <v>44524</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F53">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="G53">
-        <v>150</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2046,58 +2052,56 @@
         <v>44524</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>435</v>
+        <v>105</v>
       </c>
       <c r="G54">
-        <v>370</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
       </c>
       <c r="F55">
-        <f>10.5*7.08</f>
-        <v>74.34</v>
+        <v>274</v>
       </c>
       <c r="G55">
-        <f>12.5*7.08</f>
-        <v>88.5</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2106,79 +2110,79 @@
         <v>8</v>
       </c>
       <c r="F56">
-        <v>477</v>
+        <v>97</v>
       </c>
       <c r="G56">
-        <v>483</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="G57">
-        <v>122</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="G58">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
       <c r="F59">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="G59">
-        <v>88</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2186,53 +2190,55 @@
         <v>44523</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>310</v>
+        <f>10.5*7.08</f>
+        <v>74.34</v>
       </c>
       <c r="G60">
-        <v>300</v>
+        <f>12.5*7.08</f>
+        <v>88.5</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>477</v>
+      </c>
+      <c r="G61">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B62" t="s">
         <v>115</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61">
-        <v>370</v>
-      </c>
-      <c r="G61">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B62" t="s">
-        <v>22</v>
       </c>
       <c r="C62" t="s">
         <v>44</v>
@@ -2241,67 +2247,70 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>1145.7</v>
+        <v>128</v>
       </c>
       <c r="G62">
-        <v>1181.8800000000001</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
       </c>
       <c r="F63">
-        <v>35</v>
+        <v>100</v>
+      </c>
+      <c r="G63">
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="G64">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2310,104 +2319,107 @@
         <v>8</v>
       </c>
       <c r="F65">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="G65">
-        <v>185</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>370</v>
+      </c>
+      <c r="G66">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>500</v>
+        <v>1145.7</v>
       </c>
       <c r="G67">
-        <v>540</v>
+        <v>1181.8800000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>170</v>
-      </c>
-      <c r="G68">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G69">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
@@ -2419,67 +2431,61 @@
         <v>8</v>
       </c>
       <c r="F70">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G70">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71">
-        <v>157</v>
-      </c>
-      <c r="G71">
-        <v>137</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
       </c>
       <c r="F72">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="G72">
-        <v>120</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2488,21 +2494,21 @@
         <v>8</v>
       </c>
       <c r="F73">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="G73">
-        <v>160.5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2511,81 +2517,90 @@
         <v>8</v>
       </c>
       <c r="F74">
-        <v>483</v>
+        <v>147</v>
       </c>
       <c r="G74">
-        <v>471</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
+      </c>
+      <c r="F75">
+        <v>199</v>
+      </c>
+      <c r="G75">
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F76">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="G76">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>1050</v>
+        <v>125</v>
+      </c>
+      <c r="G77">
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2594,50 +2609,50 @@
         <v>8</v>
       </c>
       <c r="F78">
-        <v>1100</v>
+        <v>142</v>
       </c>
       <c r="G78">
-        <v>990</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>261</v>
+        <v>483</v>
+      </c>
+      <c r="G79">
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
-      </c>
-      <c r="F80">
-        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,22 +2660,22 @@
         <v>44517</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
       </c>
       <c r="F81">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="G81">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2668,22 +2683,19 @@
         <v>44517</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82">
-        <v>327</v>
-      </c>
-      <c r="G82">
-        <v>320</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,10 +2703,10 @@
         <v>44517</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2703,10 +2715,10 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>87</v>
+        <v>1100</v>
       </c>
       <c r="G83">
-        <v>96</v>
+        <v>990</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2714,56 +2726,50 @@
         <v>44517</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F84">
-        <v>150</v>
-      </c>
-      <c r="G84">
-        <v>180</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85">
-        <v>1145</v>
-      </c>
-      <c r="G85">
-        <v>1160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2772,18 +2778,18 @@
         <v>5</v>
       </c>
       <c r="F86">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G86">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
@@ -2795,90 +2801,90 @@
         <v>8</v>
       </c>
       <c r="F87">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="G87">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F88">
-        <v>685</v>
+        <v>87</v>
       </c>
       <c r="G88">
-        <v>558</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
       </c>
       <c r="F89">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G89">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
         <v>23</v>
       </c>
-      <c r="C90" t="s">
-        <v>33</v>
-      </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F90">
-        <v>130</v>
+        <v>1145</v>
       </c>
       <c r="G90">
-        <v>117</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2887,41 +2893,41 @@
         <v>5</v>
       </c>
       <c r="F91">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G91">
-        <v>180</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F92">
-        <v>2.7</v>
+        <v>380</v>
       </c>
       <c r="G92">
-        <v>2.8</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C93" t="s">
         <v>21</v>
@@ -2930,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F93">
-        <v>70</v>
+        <v>685</v>
       </c>
       <c r="G93">
-        <v>54</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2944,22 +2950,22 @@
         <v>44515</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F94">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="G94">
-        <v>206</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2967,22 +2973,22 @@
         <v>44515</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F95">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="G95">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2990,10 +2996,10 @@
         <v>44515</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3002,10 +3008,10 @@
         <v>5</v>
       </c>
       <c r="F96">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="G96">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3013,16 +3019,22 @@
         <v>44515</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>2.7</v>
+      </c>
+      <c r="G97">
+        <v>2.8</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,22 +3042,22 @@
         <v>44515</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F98">
-        <v>960</v>
+        <v>70</v>
       </c>
       <c r="G98">
-        <v>800</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,22 +3065,22 @@
         <v>44515</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F99">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="G99">
-        <v>70</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3076,10 +3088,10 @@
         <v>44515</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3088,10 +3100,10 @@
         <v>8</v>
       </c>
       <c r="F100">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G100">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3099,22 +3111,22 @@
         <v>44515</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="G101">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3122,7 +3134,7 @@
         <v>44515</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
         <v>41</v>
@@ -3133,19 +3145,13 @@
       <c r="E102" t="s">
         <v>8</v>
       </c>
-      <c r="F102">
-        <v>145</v>
-      </c>
-      <c r="G102">
-        <v>120</v>
-      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -3154,24 +3160,24 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F103">
-        <v>155</v>
+        <v>960</v>
       </c>
       <c r="G103">
-        <v>145</v>
+        <v>800</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3180,18 +3186,18 @@
         <v>8</v>
       </c>
       <c r="F104">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="G104">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
         <v>45</v>
@@ -3203,21 +3209,21 @@
         <v>8</v>
       </c>
       <c r="F105">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G105">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C106" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3226,33 +3232,33 @@
         <v>8</v>
       </c>
       <c r="F106">
-        <v>697</v>
+        <v>32</v>
       </c>
       <c r="G106">
-        <v>640</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
       </c>
       <c r="F107">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="G107">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,22 +3266,22 @@
         <v>44512</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="G108">
-        <v>220</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3283,22 +3289,22 @@
         <v>44512</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F109">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="G109">
-        <v>205</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3306,10 +3312,10 @@
         <v>44512</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3318,179 +3324,179 @@
         <v>8</v>
       </c>
       <c r="F110">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G110">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
       </c>
       <c r="F111">
-        <v>340</v>
+        <v>697</v>
       </c>
       <c r="G111">
-        <v>295</v>
+        <v>640</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B112" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F112">
-        <v>310</v>
+        <v>197</v>
+      </c>
+      <c r="G112">
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B113" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F113">
-        <v>360</v>
+        <v>235</v>
       </c>
       <c r="G113">
-        <v>320</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F114">
-        <v>990</v>
+        <v>215</v>
       </c>
       <c r="G114">
-        <v>930</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B115" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F115">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G115">
-        <v>145</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <v>51</v>
+        <v>340</v>
       </c>
       <c r="G116">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C117" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E117" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F117">
-        <v>325</v>
-      </c>
-      <c r="G117">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3499,21 +3505,21 @@
         <v>8</v>
       </c>
       <c r="F118">
-        <v>175</v>
+        <v>360</v>
       </c>
       <c r="G118">
-        <v>190</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3522,33 +3528,33 @@
         <v>8</v>
       </c>
       <c r="F119">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="G119">
-        <v>30</v>
+        <v>930</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F120">
-        <v>497</v>
+        <v>75</v>
       </c>
       <c r="G120">
-        <v>512</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3556,22 +3562,22 @@
         <v>44510</v>
       </c>
       <c r="B121" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
       </c>
       <c r="F121">
-        <v>360</v>
+        <v>51</v>
       </c>
       <c r="G121">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3579,22 +3585,22 @@
         <v>44510</v>
       </c>
       <c r="B122" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F122">
-        <v>92.5</v>
+        <v>325</v>
       </c>
       <c r="G122">
-        <v>83</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3602,7 +3608,7 @@
         <v>44510</v>
       </c>
       <c r="B123" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C123" t="s">
         <v>45</v>
@@ -3614,10 +3620,10 @@
         <v>8</v>
       </c>
       <c r="F123">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="G123">
-        <v>89</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3625,22 +3631,22 @@
         <v>44510</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F124">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="G124">
-        <v>175</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3648,10 +3654,10 @@
         <v>44510</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C125" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3660,10 +3666,10 @@
         <v>8</v>
       </c>
       <c r="F125">
-        <v>190</v>
+        <v>497</v>
       </c>
       <c r="G125">
-        <v>140</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3671,99 +3677,102 @@
         <v>44510</v>
       </c>
       <c r="B126" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C126" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F126">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="G126">
-        <v>140</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B127" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C127" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
       </c>
       <c r="F127">
-        <v>240</v>
+        <v>92.5</v>
+      </c>
+      <c r="G127">
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B128" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
       </c>
       <c r="F128">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="G128">
-        <v>222</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F129">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="G129">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3772,21 +3781,21 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>575</v>
+        <v>190</v>
       </c>
       <c r="G130">
-        <v>545</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B131" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3795,18 +3804,18 @@
         <v>8</v>
       </c>
       <c r="F131">
-        <v>328</v>
+        <v>160</v>
       </c>
       <c r="G131">
-        <v>310</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C132" t="s">
         <v>70</v>
@@ -3815,67 +3824,67 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F132">
-        <v>170</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F133">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="G133">
-        <v>175</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F134">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="G134">
-        <v>40</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C135" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3884,21 +3893,21 @@
         <v>8</v>
       </c>
       <c r="F135">
-        <v>67</v>
+        <v>575</v>
       </c>
       <c r="G135">
-        <v>46</v>
+        <v>545</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -3907,10 +3916,10 @@
         <v>8</v>
       </c>
       <c r="F136">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c r="G136">
-        <v>60</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3918,22 +3927,19 @@
         <v>44505</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C137" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F137">
-        <v>68</v>
-      </c>
-      <c r="G137">
-        <v>55</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3941,22 +3947,22 @@
         <v>44505</v>
       </c>
       <c r="B138" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C138" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F138">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G138">
-        <v>50</v>
+        <v>175</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3964,10 +3970,10 @@
         <v>44505</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3976,10 +3982,10 @@
         <v>5</v>
       </c>
       <c r="F139">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="G139">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3987,22 +3993,22 @@
         <v>44505</v>
       </c>
       <c r="B140" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F140">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="G140">
-        <v>110</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4010,22 +4016,22 @@
         <v>44505</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F141">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="G141">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4033,10 +4039,10 @@
         <v>44505</v>
       </c>
       <c r="B142" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4045,41 +4051,44 @@
         <v>8</v>
       </c>
       <c r="F142">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="G142">
-        <v>300</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B143" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F143">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="G143">
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -4088,18 +4097,18 @@
         <v>5</v>
       </c>
       <c r="F144">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="G144">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C145" t="s">
         <v>23</v>
@@ -4108,24 +4117,24 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F145">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="G145">
-        <v>245</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4134,87 +4143,87 @@
         <v>5</v>
       </c>
       <c r="F146">
-        <v>281</v>
+        <v>120</v>
       </c>
       <c r="G146">
-        <v>270</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B147" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C147" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F147">
-        <v>272</v>
+        <v>275</v>
+      </c>
+      <c r="G147">
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B148" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F148">
-        <v>95</v>
-      </c>
-      <c r="G148">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B149" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C149" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F149">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="G149">
-        <v>176</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B150" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -4223,33 +4232,33 @@
         <v>8</v>
       </c>
       <c r="F150">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G150">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B151" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F151">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="G151">
-        <v>125</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4257,22 +4266,19 @@
         <v>44503</v>
       </c>
       <c r="B152" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C152" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="s">
         <v>5</v>
       </c>
       <c r="F152">
-        <v>135</v>
-      </c>
-      <c r="G152">
-        <v>130</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4280,22 +4286,22 @@
         <v>44503</v>
       </c>
       <c r="B153" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C153" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F153">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="G153">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4303,22 +4309,22 @@
         <v>44503</v>
       </c>
       <c r="B154" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C154" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F154">
-        <v>540</v>
+        <v>180</v>
       </c>
       <c r="G154">
-        <v>530</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4326,10 +4332,10 @@
         <v>44503</v>
       </c>
       <c r="B155" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -4338,110 +4344,113 @@
         <v>8</v>
       </c>
       <c r="F155">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="G155">
-        <v>163</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B156" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F156">
-        <v>59</v>
+        <v>130</v>
+      </c>
+      <c r="G156">
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B157" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F157">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="G157">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C158" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F158">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="G158">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B159" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F159">
-        <v>54</v>
+        <v>540</v>
       </c>
       <c r="G159">
-        <v>46</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B160" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -4450,10 +4459,10 @@
         <v>8</v>
       </c>
       <c r="F160">
-        <v>550</v>
+        <v>140</v>
       </c>
       <c r="G160">
-        <v>540</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4461,53 +4470,53 @@
         <v>44502</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F161">
-        <v>810</v>
-      </c>
-      <c r="G161">
-        <v>760</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C162" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F162">
-        <v>360</v>
+        <v>75</v>
+      </c>
+      <c r="G162">
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B163" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -4516,76 +4525,79 @@
         <v>8</v>
       </c>
       <c r="F163">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="G163">
-        <v>206</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B164" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="s">
         <v>8</v>
       </c>
       <c r="F164">
-        <v>151</v>
+        <v>54</v>
+      </c>
+      <c r="G164">
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B165" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D165">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F165">
-        <v>105</v>
+        <v>550</v>
       </c>
       <c r="G165">
-        <v>208</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B166" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C166" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F166">
-        <v>204</v>
+        <v>810</v>
       </c>
       <c r="G166">
-        <v>192</v>
+        <v>760</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4593,22 +4605,19 @@
         <v>44501</v>
       </c>
       <c r="B167" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F167">
-        <v>175</v>
-      </c>
-      <c r="G167">
-        <v>192</v>
+        <v>360</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4616,22 +4625,22 @@
         <v>44501</v>
       </c>
       <c r="B168" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C168" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F168">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="G168">
-        <v>135</v>
+        <v>206</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4639,22 +4648,19 @@
         <v>44501</v>
       </c>
       <c r="B169" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C169" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F169">
-        <v>88</v>
-      </c>
-      <c r="G169">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4662,22 +4668,22 @@
         <v>44501</v>
       </c>
       <c r="B170" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E170" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F170">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G170">
-        <v>100</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4685,22 +4691,22 @@
         <v>44501</v>
       </c>
       <c r="B171" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F171">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G171">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4708,21 +4714,136 @@
         <v>44501</v>
       </c>
       <c r="B172" t="s">
+        <v>101</v>
+      </c>
+      <c r="C172" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172">
+        <v>175</v>
+      </c>
+      <c r="G172">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B173" t="s">
+        <v>81</v>
+      </c>
+      <c r="C173" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>90</v>
+      </c>
+      <c r="F173">
+        <v>146</v>
+      </c>
+      <c r="G173">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>54</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>90</v>
+      </c>
+      <c r="F174">
+        <v>88</v>
+      </c>
+      <c r="G174">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B175" t="s">
+        <v>102</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>85</v>
+      </c>
+      <c r="G175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B176" t="s">
+        <v>103</v>
+      </c>
+      <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176">
+        <v>210</v>
+      </c>
+      <c r="G176">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B177" t="s">
         <v>104</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C177" t="s">
         <v>105</v>
       </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172">
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177">
         <v>204</v>
       </c>
-      <c r="G172">
+      <c r="G177">
         <v>210</v>
       </c>
     </row>

--- a/Analyst rating changes.xlsx
+++ b/Analyst rating changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Analyst-sentiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{0A89CBBB-E20B-4ED2-A532-E146F8D124CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9602293-9BB3-4B3F-9D30-C338AAF7BED8}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{0A89CBBB-E20B-4ED2-A532-E146F8D124CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AEBDF11-2E27-4FEF-8F68-7E13A1347228}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="4515" windowWidth="35265" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="4860" windowWidth="35265" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="156">
   <si>
     <t>Name</t>
   </si>
@@ -490,6 +490,15 @@
   </si>
   <si>
     <t>HEXA B</t>
+  </si>
+  <si>
+    <t>MTRS</t>
+  </si>
+  <si>
+    <t>ACAST</t>
+  </si>
+  <si>
+    <t>AXFO</t>
   </si>
 </sst>
 </file>
@@ -842,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C20D-DE11-9641-971F-C3D4179070FE}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,13 +889,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -895,182 +904,176 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>130</v>
-      </c>
-      <c r="G2">
-        <v>110</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>145</v>
+        <v>43.5</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="G4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>123</v>
-      </c>
-      <c r="G5">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44539</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="G6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44539</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G7">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44539</v>
       </c>
       <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
         <v>145</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>70</v>
-      </c>
       <c r="G8">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="G9">
-        <v>225</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1079,67 +1082,67 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="G10">
-        <v>370</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G11">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>130</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1148,18 +1151,18 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1171,56 +1174,56 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="G14">
-        <v>113</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F15">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="G15">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>1097.46</v>
+        <v>115</v>
       </c>
       <c r="G16">
-        <v>1199.97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,99 +1231,102 @@
         <v>44537</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>640</v>
+        <v>180</v>
+      </c>
+      <c r="G17">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="G18">
-        <v>235</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="G19">
-        <v>67</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>170</v>
+        <v>1097.46</v>
       </c>
       <c r="G20">
-        <v>235</v>
+        <v>1199.97</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1329,61 +1335,64 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <v>235</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="G22">
-        <v>270</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>165</v>
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1392,33 +1401,30 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="G24">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.19</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,22 +1432,22 @@
         <v>44533</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="G26">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1449,22 +1455,19 @@
         <v>44533</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>310</v>
-      </c>
-      <c r="G27">
-        <v>310</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1472,10 +1475,10 @@
         <v>44533</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1484,10 +1487,10 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G28">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,33 +1498,33 @@
         <v>44533</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F29">
-        <v>635</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>620</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1530,44 +1533,44 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="G30">
-        <v>175</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F31">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="G31">
-        <v>145</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B32" t="s">
         <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1576,33 +1579,33 @@
         <v>5</v>
       </c>
       <c r="F32">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="G32">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B33" t="s">
         <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="G33">
-        <v>545</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1610,22 +1613,22 @@
         <v>44532</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="G34">
-        <v>285</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1633,10 +1636,10 @@
         <v>44532</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1645,10 +1648,10 @@
         <v>8</v>
       </c>
       <c r="F35">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="G35">
-        <v>260</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1656,7 +1659,7 @@
         <v>44532</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
@@ -1665,47 +1668,47 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G36">
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="G37">
-        <v>480</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1714,56 +1717,56 @@
         <v>8</v>
       </c>
       <c r="F38">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="G38">
-        <v>86</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>0.5</v>
+        <v>265</v>
       </c>
       <c r="G40">
-        <v>1.2</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1771,22 +1774,22 @@
         <v>44531</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41">
-        <v>115</v>
+        <v>500</v>
       </c>
       <c r="G41">
-        <v>130</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1794,10 +1797,10 @@
         <v>44531</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1806,10 +1809,10 @@
         <v>8</v>
       </c>
       <c r="F42">
+        <v>85</v>
+      </c>
+      <c r="G42">
         <v>86</v>
-      </c>
-      <c r="G42">
-        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,56 +1820,56 @@
         <v>44531</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G43">
-        <v>235</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F44">
-        <v>66</v>
+        <v>0.5</v>
       </c>
       <c r="G44">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1875,44 +1878,44 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="G45">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G46">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1921,21 +1924,21 @@
         <v>57</v>
       </c>
       <c r="F47">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="G47">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44530</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1944,96 +1947,102 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="G48">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F50">
-        <v>340</v>
+        <v>64</v>
       </c>
       <c r="G50">
-        <v>320</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F51">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="G51">
-        <v>370</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
       </c>
       <c r="F52">
-        <v>360</v>
+        <v>145</v>
       </c>
       <c r="G52">
-        <v>370</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2041,22 +2050,16 @@
         <v>44529</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53">
-        <v>612</v>
-      </c>
-      <c r="G53">
-        <v>476</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2064,33 +2067,33 @@
         <v>44529</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c r="G54">
-        <v>204</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2099,79 +2102,79 @@
         <v>8</v>
       </c>
       <c r="F55">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="G55">
-        <v>120</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="G56">
-        <v>150</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>285</v>
+        <v>612</v>
       </c>
       <c r="G57">
-        <v>240</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="G58">
-        <v>135</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2179,19 +2182,22 @@
         <v>44525</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F59">
-        <v>35</v>
+        <v>130</v>
+      </c>
+      <c r="G59">
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,27 +2205,30 @@
         <v>44525</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F60">
-        <v>510</v>
+        <v>155</v>
+      </c>
+      <c r="G60">
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
@@ -2231,87 +2240,81 @@
         <v>5</v>
       </c>
       <c r="F61">
-        <v>965.2</v>
+        <v>285</v>
       </c>
       <c r="G61">
-        <v>822.96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F62">
-        <v>53.34</v>
+        <v>155</v>
       </c>
       <c r="G62">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>162.56</v>
-      </c>
-      <c r="G63">
-        <v>166.624</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F64">
-        <v>310</v>
-      </c>
-      <c r="G64">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44524</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -2323,10 +2326,10 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>105</v>
+        <v>965.2</v>
       </c>
       <c r="G65">
-        <v>100</v>
+        <v>822.96</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2334,10 +2337,10 @@
         <v>44524</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2346,10 +2349,10 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>274</v>
+        <v>53.34</v>
       </c>
       <c r="G66">
-        <v>165</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2357,10 +2360,10 @@
         <v>44524</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2369,10 +2372,10 @@
         <v>8</v>
       </c>
       <c r="F67">
-        <v>97</v>
+        <v>162.56</v>
       </c>
       <c r="G67">
-        <v>87</v>
+        <v>166.624</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2380,22 +2383,22 @@
         <v>44524</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F68">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="G68">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2403,22 +2406,22 @@
         <v>44524</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="G69">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,116 +2429,114 @@
         <v>44524</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F70">
-        <v>435</v>
+        <v>274</v>
       </c>
       <c r="G70">
-        <v>370</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F71">
-        <f>10.5*7.08</f>
-        <v>74.34</v>
+        <v>97</v>
       </c>
       <c r="G71">
-        <f>12.5*7.08</f>
-        <v>88.5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
       </c>
       <c r="F72">
-        <v>477</v>
+        <v>340</v>
       </c>
       <c r="G72">
-        <v>483</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F73">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="G73">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>100</v>
+        <v>435</v>
       </c>
       <c r="G74">
-        <v>110</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2543,22 +2544,24 @@
         <v>44523</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F75">
-        <v>82</v>
+        <f>10.5*7.08</f>
+        <v>74.34</v>
       </c>
       <c r="G75">
-        <v>88</v>
+        <f>12.5*7.08</f>
+        <v>88.5</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2566,10 +2569,10 @@
         <v>44523</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2578,99 +2581,102 @@
         <v>8</v>
       </c>
       <c r="F76">
-        <v>310</v>
+        <v>477</v>
       </c>
       <c r="G76">
-        <v>300</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>370</v>
+        <v>128</v>
       </c>
       <c r="G77">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F78">
-        <v>1145.7</v>
+        <v>100</v>
       </c>
       <c r="G78">
-        <v>1181.8800000000001</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>35</v>
+        <v>82</v>
+      </c>
+      <c r="G79">
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="G80">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2678,96 +2684,99 @@
         <v>44522</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
       <c r="F81">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="G81">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>1145.7</v>
+      </c>
+      <c r="G82">
+        <v>1181.8800000000001</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
       </c>
       <c r="F83">
-        <v>500</v>
-      </c>
-      <c r="G83">
-        <v>540</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F84">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="G84">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2776,10 +2785,10 @@
         <v>8</v>
       </c>
       <c r="F85">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="G85">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2787,79 +2796,73 @@
         <v>44519</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86">
-        <v>199</v>
-      </c>
-      <c r="G86">
-        <v>190</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F87">
-        <v>157</v>
+        <v>500</v>
       </c>
       <c r="G87">
-        <v>137</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F88">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="G88">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2868,21 +2871,21 @@
         <v>8</v>
       </c>
       <c r="F89">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G89">
-        <v>160.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2891,10 +2894,10 @@
         <v>8</v>
       </c>
       <c r="F90">
-        <v>483</v>
+        <v>199</v>
       </c>
       <c r="G90">
-        <v>471</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2902,70 +2905,79 @@
         <v>44518</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
+      </c>
+      <c r="F91">
+        <v>157</v>
+      </c>
+      <c r="G91">
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
       </c>
       <c r="F92">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="G92">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F93">
-        <v>1050</v>
+        <v>142</v>
+      </c>
+      <c r="G93">
+        <v>160.5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2974,30 +2986,27 @@
         <v>8</v>
       </c>
       <c r="F94">
-        <v>1100</v>
+        <v>483</v>
       </c>
       <c r="G94">
-        <v>990</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95">
-        <v>261</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,19 +3014,22 @@
         <v>44517</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>155</v>
+        <v>72</v>
+      </c>
+      <c r="G96">
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3025,22 +3037,19 @@
         <v>44517</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F97">
-        <v>145</v>
-      </c>
-      <c r="G97">
-        <v>136</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3048,10 +3057,10 @@
         <v>44517</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3060,10 +3069,10 @@
         <v>8</v>
       </c>
       <c r="F98">
-        <v>327</v>
+        <v>1100</v>
       </c>
       <c r="G98">
-        <v>320</v>
+        <v>990</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3071,22 +3080,19 @@
         <v>44517</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F99">
-        <v>87</v>
-      </c>
-      <c r="G99">
-        <v>96</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3094,76 +3100,73 @@
         <v>44517</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
       </c>
       <c r="F100">
-        <v>150</v>
-      </c>
-      <c r="G100">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>1145</v>
+        <v>145</v>
       </c>
       <c r="G101">
-        <v>1160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>118</v>
+        <v>327</v>
       </c>
       <c r="G102">
-        <v>123</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -3175,18 +3178,18 @@
         <v>8</v>
       </c>
       <c r="F103">
-        <v>380</v>
+        <v>87</v>
       </c>
       <c r="G103">
-        <v>357</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
@@ -3195,93 +3198,93 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>685</v>
+        <v>150</v>
       </c>
       <c r="G104">
-        <v>558</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
       </c>
       <c r="F105">
-        <v>165</v>
+        <v>1145</v>
       </c>
       <c r="G105">
-        <v>165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
         <v>23</v>
       </c>
-      <c r="C106" t="s">
-        <v>33</v>
-      </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F106">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G106">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F107">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="G107">
-        <v>180</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3290,10 +3293,10 @@
         <v>5</v>
       </c>
       <c r="F108">
-        <v>2.7</v>
+        <v>685</v>
       </c>
       <c r="G108">
-        <v>2.8</v>
+        <v>558</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3301,22 +3304,22 @@
         <v>44515</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
       </c>
       <c r="F109">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="G109">
-        <v>54</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3324,22 +3327,22 @@
         <v>44515</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F110">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="G110">
-        <v>206</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3347,22 +3350,22 @@
         <v>44515</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F111">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="G111">
-        <v>17</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3370,10 +3373,10 @@
         <v>44515</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3382,10 +3385,10 @@
         <v>5</v>
       </c>
       <c r="F112">
-        <v>103</v>
+        <v>2.7</v>
       </c>
       <c r="G112">
-        <v>112</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3393,16 +3396,22 @@
         <v>44515</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
+      </c>
+      <c r="F113">
+        <v>70</v>
+      </c>
+      <c r="G113">
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,10 +3419,10 @@
         <v>44515</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3422,10 +3431,10 @@
         <v>5</v>
       </c>
       <c r="F114">
-        <v>960</v>
+        <v>228</v>
       </c>
       <c r="G114">
-        <v>800</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,10 +3442,10 @@
         <v>44515</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3445,10 +3454,10 @@
         <v>8</v>
       </c>
       <c r="F115">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="G115">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3456,22 +3465,22 @@
         <v>44515</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F116">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="G116">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3479,22 +3488,16 @@
         <v>44515</v>
       </c>
       <c r="B117" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
-      </c>
-      <c r="F117">
-        <v>32</v>
-      </c>
-      <c r="G117">
-        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3502,33 +3505,33 @@
         <v>44515</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F118">
-        <v>145</v>
+        <v>960</v>
       </c>
       <c r="G118">
-        <v>120</v>
+        <v>800</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3537,18 +3540,18 @@
         <v>8</v>
       </c>
       <c r="F119">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="G119">
-        <v>145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B120" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C120" t="s">
         <v>45</v>
@@ -3560,21 +3563,21 @@
         <v>8</v>
       </c>
       <c r="F120">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G120">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C121" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3583,33 +3586,33 @@
         <v>8</v>
       </c>
       <c r="F121">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G121">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C122" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
       </c>
       <c r="F122">
-        <v>697</v>
+        <v>145</v>
       </c>
       <c r="G122">
-        <v>640</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3617,10 +3620,10 @@
         <v>44512</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3629,10 +3632,10 @@
         <v>8</v>
       </c>
       <c r="F123">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G123">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3640,22 +3643,22 @@
         <v>44512</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F124">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="G124">
-        <v>220</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3663,22 +3666,22 @@
         <v>44512</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F125">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="G125">
-        <v>205</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3686,7 +3689,7 @@
         <v>44512</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C126" t="s">
         <v>44</v>
@@ -3698,87 +3701,90 @@
         <v>8</v>
       </c>
       <c r="F126">
-        <v>31</v>
+        <v>697</v>
       </c>
       <c r="G126">
-        <v>28</v>
+        <v>640</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
       </c>
       <c r="F127">
-        <v>340</v>
+        <v>197</v>
       </c>
       <c r="G127">
-        <v>295</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B128" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C128" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F128">
-        <v>310</v>
+        <v>235</v>
+      </c>
+      <c r="G128">
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B129" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F129">
-        <v>360</v>
+        <v>215</v>
       </c>
       <c r="G129">
-        <v>320</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3787,10 +3793,10 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>990</v>
+        <v>31</v>
       </c>
       <c r="G130">
-        <v>930</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3798,79 +3804,76 @@
         <v>44511</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F131">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="G131">
-        <v>145</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B132" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E132" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F132">
-        <v>51</v>
-      </c>
-      <c r="G132">
-        <v>45</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B133" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F133">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="G133">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B134" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3879,33 +3882,33 @@
         <v>8</v>
       </c>
       <c r="F134">
-        <v>175</v>
+        <v>990</v>
       </c>
       <c r="G134">
-        <v>190</v>
+        <v>930</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F135">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G135">
-        <v>30</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3913,22 +3916,22 @@
         <v>44510</v>
       </c>
       <c r="B136" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F136">
-        <v>497</v>
+        <v>51</v>
       </c>
       <c r="G136">
-        <v>512</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3936,22 +3939,22 @@
         <v>44510</v>
       </c>
       <c r="B137" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
       </c>
       <c r="F137">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="G137">
-        <v>340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3959,10 +3962,10 @@
         <v>44510</v>
       </c>
       <c r="B138" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -3971,10 +3974,10 @@
         <v>8</v>
       </c>
       <c r="F138">
-        <v>92.5</v>
+        <v>175</v>
       </c>
       <c r="G138">
-        <v>83</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3982,10 +3985,10 @@
         <v>44510</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C139" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3994,10 +3997,10 @@
         <v>8</v>
       </c>
       <c r="F139">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G139">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4005,22 +4008,22 @@
         <v>44510</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F140">
-        <v>139</v>
+        <v>497</v>
       </c>
       <c r="G140">
-        <v>175</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4028,22 +4031,22 @@
         <v>44510</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C141" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F141">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="G141">
-        <v>140</v>
+        <v>340</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4051,10 +4054,10 @@
         <v>44510</v>
       </c>
       <c r="B142" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C142" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4063,87 +4066,90 @@
         <v>8</v>
       </c>
       <c r="F142">
-        <v>160</v>
+        <v>92.5</v>
       </c>
       <c r="G142">
-        <v>140</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B143" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C143" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
       </c>
       <c r="F143">
-        <v>240</v>
+        <v>100</v>
+      </c>
+      <c r="G143">
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B144" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F144">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="G144">
-        <v>222</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B145" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F145">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="G145">
-        <v>231</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B146" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4152,10 +4158,10 @@
         <v>8</v>
       </c>
       <c r="F146">
-        <v>575</v>
+        <v>160</v>
       </c>
       <c r="G146">
-        <v>545</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4163,50 +4169,50 @@
         <v>44509</v>
       </c>
       <c r="B147" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
       </c>
       <c r="F147">
-        <v>328</v>
-      </c>
-      <c r="G147">
-        <v>310</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C148" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F148">
-        <v>170</v>
+        <v>211</v>
+      </c>
+      <c r="G148">
+        <v>222</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C149" t="s">
         <v>31</v>
@@ -4218,44 +4224,44 @@
         <v>57</v>
       </c>
       <c r="F149">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="G149">
-        <v>175</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F150">
-        <v>55</v>
+        <v>575</v>
       </c>
       <c r="G150">
-        <v>40</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B151" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C151" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -4264,10 +4270,10 @@
         <v>8</v>
       </c>
       <c r="F151">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="G151">
-        <v>46</v>
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4275,22 +4281,19 @@
         <v>44505</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>66</v>
-      </c>
-      <c r="G152">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4298,22 +4301,22 @@
         <v>44505</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C153" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F153">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="G153">
-        <v>55</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4324,7 +4327,7 @@
         <v>60</v>
       </c>
       <c r="C154" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -4333,10 +4336,10 @@
         <v>5</v>
       </c>
       <c r="F154">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G154">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4344,22 +4347,22 @@
         <v>44505</v>
       </c>
       <c r="B155" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F155">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="G155">
-        <v>200</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4367,22 +4370,22 @@
         <v>44505</v>
       </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C156" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D156">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F156">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="G156">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4390,22 +4393,22 @@
         <v>44505</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F157">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="G157">
-        <v>111</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4413,7 +4416,7 @@
         <v>44505</v>
       </c>
       <c r="B158" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
         <v>45</v>
@@ -4422,44 +4425,47 @@
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F158">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="G158">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B159" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C159" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F159">
-        <v>123</v>
+        <v>210</v>
+      </c>
+      <c r="G159">
+        <v>200</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B160" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -4468,84 +4474,84 @@
         <v>5</v>
       </c>
       <c r="F160">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G160">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B161" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C161" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F161">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="G161">
-        <v>245</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B162" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F162">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G162">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B163" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C163" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E163" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F163">
-        <v>272</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B164" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
@@ -4554,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F164">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G164">
         <v>100</v>
@@ -4565,13 +4571,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B165" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C165" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -4580,30 +4586,30 @@
         <v>8</v>
       </c>
       <c r="F165">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="G165">
-        <v>176</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B166" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F166">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G166">
         <v>270</v>
@@ -4614,22 +4620,19 @@
         <v>44503</v>
       </c>
       <c r="B167" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F167">
-        <v>130</v>
-      </c>
-      <c r="G167">
-        <v>125</v>
+        <v>272</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4637,22 +4640,22 @@
         <v>44503</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C168" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F168">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G168">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4660,22 +4663,22 @@
         <v>44503</v>
       </c>
       <c r="B169" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C169" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F169">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="G169">
-        <v>120</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4683,22 +4686,22 @@
         <v>44503</v>
       </c>
       <c r="B170" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C170" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F170">
-        <v>540</v>
+        <v>290</v>
       </c>
       <c r="G170">
-        <v>530</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4706,99 +4709,102 @@
         <v>44503</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F171">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G171">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B172" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F172">
-        <v>59</v>
+        <v>135</v>
+      </c>
+      <c r="G172">
+        <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B173" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F173">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="G173">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="C174" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F174">
-        <v>88</v>
+        <v>540</v>
       </c>
       <c r="G174">
-        <v>91</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B175" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -4807,10 +4813,10 @@
         <v>8</v>
       </c>
       <c r="F175">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="G175">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4818,22 +4824,19 @@
         <v>44502</v>
       </c>
       <c r="B176" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C176" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F176">
-        <v>550</v>
-      </c>
-      <c r="G176">
-        <v>540</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4841,10 +4844,10 @@
         <v>44502</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -4853,41 +4856,44 @@
         <v>8</v>
       </c>
       <c r="F177">
-        <v>810</v>
+        <v>75</v>
       </c>
       <c r="G177">
-        <v>760</v>
+        <v>80</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F178">
-        <v>360</v>
+        <v>88</v>
+      </c>
+      <c r="G178">
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B179" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4896,53 +4902,56 @@
         <v>8</v>
       </c>
       <c r="F179">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="G179">
-        <v>206</v>
+        <v>46</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B180" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
       </c>
       <c r="F180">
-        <v>151</v>
+        <v>550</v>
+      </c>
+      <c r="G180">
+        <v>540</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B181" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F181">
-        <v>105</v>
+        <v>810</v>
       </c>
       <c r="G181">
-        <v>208</v>
+        <v>760</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4950,22 +4959,19 @@
         <v>44501</v>
       </c>
       <c r="B182" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C182" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E182" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F182">
-        <v>204</v>
-      </c>
-      <c r="G182">
-        <v>192</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4973,10 +4979,10 @@
         <v>44501</v>
       </c>
       <c r="B183" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -4985,10 +4991,10 @@
         <v>8</v>
       </c>
       <c r="F183">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G183">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4996,22 +5002,19 @@
         <v>44501</v>
       </c>
       <c r="B184" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C184" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F184">
-        <v>146</v>
-      </c>
-      <c r="G184">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5019,22 +5022,22 @@
         <v>44501</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C185" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E185" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F185">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G185">
-        <v>85</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5042,22 +5045,22 @@
         <v>44501</v>
       </c>
       <c r="B186" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F186">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="G186">
-        <v>100</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5065,10 +5068,10 @@
         <v>44501</v>
       </c>
       <c r="B187" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -5077,10 +5080,10 @@
         <v>8</v>
       </c>
       <c r="F187">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="G187">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5088,21 +5091,113 @@
         <v>44501</v>
       </c>
       <c r="B188" t="s">
+        <v>81</v>
+      </c>
+      <c r="C188" t="s">
+        <v>54</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>90</v>
+      </c>
+      <c r="F188">
+        <v>146</v>
+      </c>
+      <c r="G188">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>54</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>90</v>
+      </c>
+      <c r="F189">
+        <v>88</v>
+      </c>
+      <c r="G189">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B190" t="s">
+        <v>102</v>
+      </c>
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190">
+        <v>85</v>
+      </c>
+      <c r="G190">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B191" t="s">
+        <v>103</v>
+      </c>
+      <c r="C191" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191">
+        <v>210</v>
+      </c>
+      <c r="G191">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B192" t="s">
         <v>104</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C192" t="s">
         <v>105</v>
       </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>5</v>
-      </c>
-      <c r="F188">
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192">
         <v>204</v>
       </c>
-      <c r="G188">
+      <c r="G192">
         <v>210</v>
       </c>
     </row>

--- a/Analyst rating changes.xlsx
+++ b/Analyst rating changes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Analyst-sentiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Analyst-sentiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEFBAD9-A5D7-4F66-B02B-D1AFDB653A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{9DEFBAD9-A5D7-4F66-B02B-D1AFDB653A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0E96EED-A0EA-45D4-8730-A6CE6B060DA7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="5205" windowWidth="35265" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>HPOL B</t>
+  </si>
+  <si>
+    <t>NOBINA</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -857,20 +860,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C20D-DE11-9641-971F-C3D4179070FE}">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -893,15 +896,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -910,133 +913,127 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="G2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>110</v>
-      </c>
-      <c r="G3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44543</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>146</v>
-      </c>
-      <c r="G4">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44543</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>315</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44543</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="G6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44543</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="G7">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44543</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>132</v>
@@ -1045,90 +1042,93 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8">
+        <v>315</v>
+      </c>
+      <c r="G8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>250</v>
+      </c>
+      <c r="G10">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
         <v>57</v>
       </c>
-      <c r="G8">
+      <c r="G11">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>44540</v>
-      </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>44540</v>
-      </c>
-      <c r="B10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>43.5</v>
-      </c>
-      <c r="G10">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>44540</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>73</v>
-      </c>
-      <c r="G11">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44540</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1137,79 +1137,76 @@
         <v>5</v>
       </c>
       <c r="F12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>43.5</v>
+      </c>
+      <c r="G13">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>44539</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>130</v>
-      </c>
-      <c r="G13">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>44539</v>
-      </c>
-      <c r="B14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>145</v>
-      </c>
-      <c r="G14">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>44539</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>145</v>
-      </c>
-      <c r="G15">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44539</v>
       </c>
@@ -1217,142 +1214,142 @@
         <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G16">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44539</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="G17">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44539</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G18">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44539</v>
       </c>
       <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>123</v>
+      </c>
+      <c r="G19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>240</v>
+      </c>
+      <c r="G20">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>135</v>
+      </c>
+      <c r="G21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B22" t="s">
         <v>145</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>70</v>
-      </c>
-      <c r="G19">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>44538</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>210</v>
-      </c>
-      <c r="G20">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>44538</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>400</v>
-      </c>
-      <c r="G21">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>44538</v>
-      </c>
-      <c r="B22" t="s">
-        <v>152</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -1361,44 +1358,44 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="G22">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44538</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="G23">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
@@ -1410,171 +1407,171 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G24">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F25">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G25">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="G26">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44537</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>1097.46</v>
+        <v>180</v>
       </c>
       <c r="G27">
-        <v>1199.97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44537</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>120</v>
+      </c>
+      <c r="G28">
         <v>113</v>
       </c>
-      <c r="D28">
+    </row>
+    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>44536</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29" t="s">
         <v>5</v>
       </c>
       <c r="F29">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="G29">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>70</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>65</v>
+        <v>1097.46</v>
       </c>
       <c r="G30">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1199.97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>170</v>
-      </c>
-      <c r="G31">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44536</v>
       </c>
@@ -1582,27 +1579,30 @@
         <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32">
+        <v>181</v>
+      </c>
+      <c r="G32">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1611,248 +1611,245 @@
         <v>8</v>
       </c>
       <c r="F33">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="G33">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="G34">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>250</v>
-      </c>
-      <c r="G35">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44533</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G36">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44533</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>348</v>
-      </c>
-      <c r="G37">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44533</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="G38">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44533</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F39">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44533</v>
       </c>
       <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>348</v>
+      </c>
+      <c r="G40">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <v>310</v>
+      </c>
+      <c r="G41">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>210</v>
+      </c>
+      <c r="G42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B43" t="s">
         <v>138</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>132</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
         <v>635</v>
       </c>
-      <c r="G40">
+      <c r="G43">
         <v>620</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>44532</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41">
-        <v>160</v>
-      </c>
-      <c r="G41">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>44532</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42">
-        <v>155</v>
-      </c>
-      <c r="G42">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>44532</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>240</v>
-      </c>
-      <c r="G43">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44532</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1861,21 +1858,21 @@
         <v>5</v>
       </c>
       <c r="F44">
-        <v>555</v>
+        <v>160</v>
       </c>
       <c r="G44">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44532</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1884,18 +1881,18 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="G45">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44532</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
@@ -1904,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="G46">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44532</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
@@ -1927,108 +1924,108 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47">
+        <v>555</v>
+      </c>
+      <c r="G47">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>290</v>
+      </c>
+      <c r="G48">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
         <v>265</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48">
-        <v>500</v>
-      </c>
-      <c r="G48">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>44531</v>
-      </c>
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49">
-        <v>85</v>
-      </c>
-      <c r="G49">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="G50">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44531</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="G51">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44531</v>
       </c>
@@ -2036,7 +2033,7 @@
         <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2045,44 +2042,44 @@
         <v>8</v>
       </c>
       <c r="F52">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44531</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="G53">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44531</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2091,44 +2088,44 @@
         <v>57</v>
       </c>
       <c r="F54">
-        <v>220</v>
+        <v>0.5</v>
       </c>
       <c r="G54">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F55">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="G55">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2137,21 +2134,21 @@
         <v>8</v>
       </c>
       <c r="F56">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G56">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2160,153 +2157,153 @@
         <v>57</v>
       </c>
       <c r="F57">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="G57">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44530</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G58">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44530</v>
       </c>
       <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60">
+        <v>64</v>
+      </c>
+      <c r="G60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61">
+        <v>81</v>
+      </c>
+      <c r="G61">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B62" t="s">
         <v>87</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C62" t="s">
         <v>70</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62">
         <v>145</v>
       </c>
-      <c r="G59">
+      <c r="G62">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61">
-        <v>340</v>
-      </c>
-      <c r="G61">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62">
-        <v>360</v>
-      </c>
-      <c r="G62">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44529</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
       </c>
-      <c r="F63">
-        <v>360</v>
-      </c>
-      <c r="G63">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44529</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2315,113 +2312,113 @@
         <v>8</v>
       </c>
       <c r="F64">
-        <v>612</v>
+        <v>340</v>
       </c>
       <c r="G64">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44529</v>
       </c>
       <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>360</v>
+      </c>
+      <c r="G65">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66">
+        <v>-1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>360</v>
+      </c>
+      <c r="G66">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>612</v>
+      </c>
+      <c r="G67">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B68" t="s">
         <v>100</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C68" t="s">
         <v>33</v>
       </c>
-      <c r="D65">
+      <c r="D68">
         <v>-1</v>
       </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65">
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68">
         <v>204</v>
       </c>
-      <c r="G65">
+      <c r="G68">
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66">
-        <v>130</v>
-      </c>
-      <c r="G66">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B67" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67">
-        <v>155</v>
-      </c>
-      <c r="G67">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68">
-        <v>285</v>
-      </c>
-      <c r="G68">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44525</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2430,153 +2427,153 @@
         <v>8</v>
       </c>
       <c r="F69">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G69">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44525</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F70">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="G70">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44525</v>
       </c>
       <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>285</v>
+      </c>
+      <c r="G71">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>155</v>
+      </c>
+      <c r="G72">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B74" t="s">
         <v>127</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C74" t="s">
         <v>45</v>
       </c>
-      <c r="D71">
+      <c r="D74">
         <v>1</v>
       </c>
-      <c r="E71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71">
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74">
         <v>510</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B72" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72">
-        <v>965.2</v>
-      </c>
-      <c r="G72">
-        <v>822.96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B73" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73">
-        <v>53.34</v>
-      </c>
-      <c r="G73">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74">
-        <v>162.56</v>
-      </c>
-      <c r="G74">
-        <v>166.624</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44524</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F75">
-        <v>310</v>
+        <v>965.2</v>
       </c>
       <c r="G75">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>822.96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44524</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2585,230 +2582,230 @@
         <v>5</v>
       </c>
       <c r="F76">
-        <v>105</v>
+        <v>53.34</v>
       </c>
       <c r="G76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55.88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44524</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F77">
-        <v>274</v>
+        <v>162.56</v>
       </c>
       <c r="G77">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>166.624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44524</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F78">
-        <v>97</v>
+        <v>310</v>
       </c>
       <c r="G78">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44524</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>340</v>
+        <v>105</v>
       </c>
       <c r="G79">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44524</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="G80">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44524</v>
       </c>
       <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>97</v>
+      </c>
+      <c r="G81">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>340</v>
+      </c>
+      <c r="G82">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>185</v>
+      </c>
+      <c r="G83">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B84" t="s">
         <v>72</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D81">
+      <c r="D84">
         <v>1</v>
       </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81">
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84">
         <v>435</v>
       </c>
-      <c r="G81">
+      <c r="G84">
         <v>370</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>44523</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>116</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C85" t="s">
         <v>117</v>
       </c>
-      <c r="D82">
+      <c r="D85">
         <v>-1</v>
       </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82">
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85">
         <f>10.5*7.08</f>
         <v>74.34</v>
       </c>
-      <c r="G82">
+      <c r="G85">
         <f>12.5*7.08</f>
         <v>88.5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B83" t="s">
-        <v>26</v>
-      </c>
-      <c r="C83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83">
-        <v>477</v>
-      </c>
-      <c r="G83">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B84" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" t="s">
-        <v>44</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84">
-        <v>128</v>
-      </c>
-      <c r="G84">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B85" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85">
-        <v>100</v>
-      </c>
-      <c r="G85">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44523</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2817,265 +2814,265 @@
         <v>8</v>
       </c>
       <c r="F86">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="G86">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44523</v>
       </c>
       <c r="B87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>128</v>
+      </c>
+      <c r="G87">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
+      </c>
+      <c r="G88">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>82</v>
+      </c>
+      <c r="G89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C90" t="s">
         <v>21</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90">
         <v>310</v>
       </c>
-      <c r="G87">
+      <c r="G90">
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B88" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88">
-        <v>370</v>
-      </c>
-      <c r="G88">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" t="s">
-        <v>44</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89">
-        <v>1145.7</v>
-      </c>
-      <c r="G89">
-        <v>1181.8800000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44522</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F91">
-        <v>126</v>
+        <v>370</v>
       </c>
       <c r="G91">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44522</v>
       </c>
       <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>1145.7</v>
+      </c>
+      <c r="G92">
+        <v>1181.8800000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>126</v>
+      </c>
+      <c r="G94">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B95" t="s">
         <v>67</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C95" t="s">
         <v>12</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95">
         <v>200</v>
       </c>
-      <c r="G92">
+      <c r="G95">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B93" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93">
-        <v>-1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94">
-        <v>-1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94">
-        <v>500</v>
-      </c>
-      <c r="G94">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B95" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95">
-        <v>170</v>
-      </c>
-      <c r="G95">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44519</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96">
-        <v>147</v>
-      </c>
-      <c r="G96">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44519</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F97">
-        <v>199</v>
+        <v>500</v>
       </c>
       <c r="G97">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3084,18 +3081,18 @@
         <v>8</v>
       </c>
       <c r="F98">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G98">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
@@ -3104,24 +3101,24 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F99">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="G99">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3130,21 +3127,21 @@
         <v>8</v>
       </c>
       <c r="F100">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="G100">
-        <v>160.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44518</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3153,374 +3150,374 @@
         <v>8</v>
       </c>
       <c r="F101">
-        <v>483</v>
+        <v>157</v>
       </c>
       <c r="G101">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44518</v>
       </c>
       <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>125</v>
+      </c>
+      <c r="G102">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>142</v>
+      </c>
+      <c r="G103">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <v>483</v>
+      </c>
+      <c r="G104">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B105" t="s">
         <v>25</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C105" t="s">
         <v>30</v>
       </c>
-      <c r="D102">
+      <c r="D105">
         <v>1</v>
       </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103">
-        <v>-1</v>
-      </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103">
-        <v>72</v>
-      </c>
-      <c r="G103">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104">
-        <v>-1</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
       <c r="E105" t="s">
         <v>8</v>
       </c>
-      <c r="F105">
-        <v>1100</v>
-      </c>
-      <c r="G105">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44517</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F106">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="G106">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44517</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F107">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44517</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>145</v>
+        <v>1100</v>
       </c>
       <c r="G108">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44517</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F109">
-        <v>327</v>
-      </c>
-      <c r="G109">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44517</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
       </c>
       <c r="F110">
-        <v>87</v>
-      </c>
-      <c r="G110">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44517</v>
       </c>
       <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>145</v>
+      </c>
+      <c r="G111">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>327</v>
+      </c>
+      <c r="G112">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <v>87</v>
+      </c>
+      <c r="G113">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B114" t="s">
         <v>20</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C114" t="s">
         <v>21</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111">
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114">
         <v>150</v>
       </c>
-      <c r="G111">
+      <c r="G114">
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>44516</v>
-      </c>
-      <c r="B112" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" t="s">
-        <v>23</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112">
-        <v>1145</v>
-      </c>
-      <c r="G112">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>44516</v>
-      </c>
-      <c r="B113" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113">
-        <v>118</v>
-      </c>
-      <c r="G113">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>44516</v>
-      </c>
-      <c r="B114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114">
-        <v>380</v>
-      </c>
-      <c r="G114">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44516</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F115">
-        <v>685</v>
+        <v>1145</v>
       </c>
       <c r="G115">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F116">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="G116">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F117">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="G117">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3529,67 +3526,67 @@
         <v>5</v>
       </c>
       <c r="F118">
-        <v>136</v>
+        <v>685</v>
       </c>
       <c r="G118">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44515</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F119">
-        <v>2.7</v>
+        <v>165</v>
       </c>
       <c r="G119">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44515</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F120">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="G120">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44515</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3598,268 +3595,268 @@
         <v>5</v>
       </c>
       <c r="F121">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="G121">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44515</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F122">
-        <v>16</v>
+        <v>2.7</v>
       </c>
       <c r="G122">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44515</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F123">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G123">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44515</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>228</v>
+      </c>
+      <c r="G124">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44515</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F125">
-        <v>960</v>
+        <v>16</v>
       </c>
       <c r="G125">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44515</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F126">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="G126">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44515</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
       </c>
-      <c r="F127">
-        <v>51</v>
-      </c>
-      <c r="G127">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44515</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F128">
-        <v>32</v>
+        <v>960</v>
       </c>
       <c r="G128">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44515</v>
       </c>
       <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>58</v>
+      </c>
+      <c r="G129">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>51</v>
+      </c>
+      <c r="G130">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B131" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131">
+        <v>32</v>
+      </c>
+      <c r="G131">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B132" t="s">
         <v>24</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C132" t="s">
         <v>41</v>
       </c>
-      <c r="D129">
+      <c r="D132">
         <v>1</v>
       </c>
-      <c r="E129" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129">
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132">
         <v>145</v>
       </c>
-      <c r="G129">
+      <c r="G132">
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>44512</v>
-      </c>
-      <c r="B130" t="s">
-        <v>27</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130">
-        <v>155</v>
-      </c>
-      <c r="G130">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>44512</v>
-      </c>
-      <c r="B131" t="s">
-        <v>47</v>
-      </c>
-      <c r="C131" t="s">
-        <v>45</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131">
-        <v>90</v>
-      </c>
-      <c r="G131">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>44512</v>
-      </c>
-      <c r="B132" t="s">
-        <v>48</v>
-      </c>
-      <c r="C132" t="s">
-        <v>45</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132">
-        <v>90</v>
-      </c>
-      <c r="G132">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44512</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3868,21 +3865,21 @@
         <v>8</v>
       </c>
       <c r="F133">
-        <v>697</v>
+        <v>155</v>
       </c>
       <c r="G133">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44512</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3891,64 +3888,64 @@
         <v>8</v>
       </c>
       <c r="F134">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="G134">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44512</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F135">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="G135">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44512</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F136">
-        <v>215</v>
+        <v>697</v>
       </c>
       <c r="G136">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44512</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C137" t="s">
         <v>44</v>
@@ -3960,271 +3957,271 @@
         <v>8</v>
       </c>
       <c r="F137">
+        <v>197</v>
+      </c>
+      <c r="G137">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>235</v>
+      </c>
+      <c r="G138">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139">
+        <v>215</v>
+      </c>
+      <c r="G139">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B140" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140">
         <v>31</v>
       </c>
-      <c r="G137">
+      <c r="G140">
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B138" t="s">
-        <v>52</v>
-      </c>
-      <c r="C138" t="s">
-        <v>53</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138">
-        <v>340</v>
-      </c>
-      <c r="G138">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B139" t="s">
-        <v>55</v>
-      </c>
-      <c r="C139" t="s">
-        <v>56</v>
-      </c>
-      <c r="D139">
-        <v>-1</v>
-      </c>
-      <c r="E139" t="s">
-        <v>57</v>
-      </c>
-      <c r="F139">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B140" t="s">
-        <v>58</v>
-      </c>
-      <c r="C140" t="s">
-        <v>21</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140">
-        <v>360</v>
-      </c>
-      <c r="G140">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44511</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
       </c>
       <c r="F141">
-        <v>990</v>
+        <v>340</v>
       </c>
       <c r="G141">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44511</v>
       </c>
       <c r="B142" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D142">
         <v>-1</v>
       </c>
       <c r="E142" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F142">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B143" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143">
+        <v>360</v>
+      </c>
+      <c r="G143">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144">
+        <v>990</v>
+      </c>
+      <c r="G144">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B145" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145">
+        <v>-1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145">
         <v>75</v>
       </c>
-      <c r="G142">
+      <c r="G145">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B143" t="s">
-        <v>60</v>
-      </c>
-      <c r="C143" t="s">
-        <v>31</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143">
-        <v>51</v>
-      </c>
-      <c r="G143">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B144" t="s">
-        <v>61</v>
-      </c>
-      <c r="C144" t="s">
-        <v>45</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144" t="s">
-        <v>5</v>
-      </c>
-      <c r="F144">
-        <v>325</v>
-      </c>
-      <c r="G144">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B145" t="s">
-        <v>62</v>
-      </c>
-      <c r="C145" t="s">
-        <v>45</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145">
-        <v>175</v>
-      </c>
-      <c r="G145">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44510</v>
       </c>
       <c r="B146" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F146">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G146">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44510</v>
       </c>
       <c r="B147" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F147">
-        <v>497</v>
+        <v>325</v>
       </c>
       <c r="G147">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44510</v>
       </c>
       <c r="B148" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F148">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="G148">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44510</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -4233,21 +4230,21 @@
         <v>8</v>
       </c>
       <c r="F149">
-        <v>92.5</v>
+        <v>32</v>
       </c>
       <c r="G149">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44510</v>
       </c>
       <c r="B150" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C150" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -4256,44 +4253,44 @@
         <v>8</v>
       </c>
       <c r="F150">
-        <v>100</v>
+        <v>497</v>
       </c>
       <c r="G150">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44510</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
       </c>
       <c r="F151">
-        <v>139</v>
+        <v>360</v>
       </c>
       <c r="G151">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44510</v>
       </c>
       <c r="B152" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C152" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -4302,260 +4299,260 @@
         <v>8</v>
       </c>
       <c r="F152">
-        <v>190</v>
+        <v>92.5</v>
       </c>
       <c r="G152">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44510</v>
       </c>
       <c r="B153" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153">
+        <v>100</v>
+      </c>
+      <c r="G153">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>139</v>
+      </c>
+      <c r="G154">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B155" t="s">
+        <v>67</v>
+      </c>
+      <c r="C155" t="s">
+        <v>44</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>190</v>
+      </c>
+      <c r="G155">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B156" t="s">
         <v>68</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C156" t="s">
         <v>44</v>
       </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153">
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156">
         <v>160</v>
       </c>
-      <c r="G153">
+      <c r="G156">
         <v>140</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
-        <v>44509</v>
-      </c>
-      <c r="B154" t="s">
-        <v>69</v>
-      </c>
-      <c r="C154" t="s">
-        <v>70</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
-        <v>44509</v>
-      </c>
-      <c r="B155" t="s">
-        <v>71</v>
-      </c>
-      <c r="C155" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155">
-        <v>211</v>
-      </c>
-      <c r="G155">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
-        <v>44509</v>
-      </c>
-      <c r="B156" t="s">
-        <v>72</v>
-      </c>
-      <c r="C156" t="s">
-        <v>31</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156" t="s">
-        <v>57</v>
-      </c>
-      <c r="F156">
-        <v>248</v>
-      </c>
-      <c r="G156">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44509</v>
       </c>
       <c r="B157" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
       </c>
       <c r="F157">
-        <v>575</v>
-      </c>
-      <c r="G157">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44509</v>
       </c>
       <c r="B158" t="s">
+        <v>71</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158">
+        <v>211</v>
+      </c>
+      <c r="G158">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B159" t="s">
+        <v>72</v>
+      </c>
+      <c r="C159" t="s">
+        <v>31</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>57</v>
+      </c>
+      <c r="F159">
+        <v>248</v>
+      </c>
+      <c r="G159">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B160" t="s">
+        <v>73</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>575</v>
+      </c>
+      <c r="G160">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B161" t="s">
         <v>74</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C161" t="s">
         <v>31</v>
       </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158">
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161">
         <v>328</v>
       </c>
-      <c r="G158">
+      <c r="G161">
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B159" t="s">
-        <v>48</v>
-      </c>
-      <c r="C159" t="s">
-        <v>70</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B160" t="s">
-        <v>75</v>
-      </c>
-      <c r="C160" t="s">
-        <v>31</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160" t="s">
-        <v>57</v>
-      </c>
-      <c r="F160">
-        <v>180</v>
-      </c>
-      <c r="G160">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B161" t="s">
-        <v>60</v>
-      </c>
-      <c r="C161" t="s">
-        <v>23</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161" t="s">
-        <v>5</v>
-      </c>
-      <c r="F161">
-        <v>55</v>
-      </c>
-      <c r="G161">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44505</v>
       </c>
       <c r="B162" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C162" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F162">
-        <v>67</v>
-      </c>
-      <c r="G162">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44505</v>
       </c>
       <c r="B163" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F163">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="G163">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44505</v>
       </c>
@@ -4563,22 +4560,22 @@
         <v>60</v>
       </c>
       <c r="C164" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F164">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G164">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44505</v>
       </c>
@@ -4586,76 +4583,76 @@
         <v>60</v>
       </c>
       <c r="C165" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F165">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G165">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44505</v>
       </c>
       <c r="B166" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F166">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="G166">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44505</v>
       </c>
       <c r="B167" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F167">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="G167">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44505</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -4664,61 +4661,64 @@
         <v>5</v>
       </c>
       <c r="F168">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G168">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44505</v>
       </c>
       <c r="B169" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C169" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F169">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="G169">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B170" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C170" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F170">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="G170">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B171" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C171" t="s">
         <v>11</v>
@@ -4730,21 +4730,21 @@
         <v>5</v>
       </c>
       <c r="F171">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G171">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B172" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C172" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -4753,337 +4753,334 @@
         <v>8</v>
       </c>
       <c r="F172">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="G172">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44504</v>
       </c>
       <c r="B173" t="s">
+        <v>81</v>
+      </c>
+      <c r="C173" t="s">
+        <v>78</v>
+      </c>
+      <c r="D173">
+        <v>-1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>57</v>
+      </c>
+      <c r="F173">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B174" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>115</v>
+      </c>
+      <c r="G174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B175" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175">
+        <v>350</v>
+      </c>
+      <c r="G175">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B176" t="s">
         <v>82</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C176" t="s">
         <v>23</v>
       </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173">
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>5</v>
+      </c>
+      <c r="F176">
         <v>281</v>
       </c>
-      <c r="G173">
+      <c r="G176">
         <v>270</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B174" t="s">
-        <v>83</v>
-      </c>
-      <c r="C174" t="s">
-        <v>70</v>
-      </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B175" t="s">
-        <v>84</v>
-      </c>
-      <c r="C175" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175">
-        <v>95</v>
-      </c>
-      <c r="G175">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B176" t="s">
-        <v>85</v>
-      </c>
-      <c r="C176" t="s">
-        <v>45</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176">
-        <v>180</v>
-      </c>
-      <c r="G176">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44503</v>
       </c>
       <c r="B177" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F177">
-        <v>290</v>
-      </c>
-      <c r="G177">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44503</v>
       </c>
       <c r="B178" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F178">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G178">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44503</v>
       </c>
       <c r="B179" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C179" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F179">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="G179">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44503</v>
       </c>
       <c r="B180" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C180" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F180">
-        <v>123</v>
+        <v>290</v>
       </c>
       <c r="G180">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44503</v>
       </c>
       <c r="B181" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C181" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F181">
-        <v>540</v>
+        <v>130</v>
       </c>
       <c r="G181">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44503</v>
       </c>
       <c r="B182" t="s">
+        <v>88</v>
+      </c>
+      <c r="C182" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182">
+        <v>135</v>
+      </c>
+      <c r="G182">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C183" t="s">
+        <v>54</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>90</v>
+      </c>
+      <c r="F183">
+        <v>123</v>
+      </c>
+      <c r="G183">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B184" t="s">
+        <v>91</v>
+      </c>
+      <c r="C184" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>5</v>
+      </c>
+      <c r="F184">
+        <v>540</v>
+      </c>
+      <c r="G184">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B185" t="s">
         <v>27</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C185" t="s">
         <v>21</v>
       </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182">
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185">
         <v>140</v>
       </c>
-      <c r="G182">
+      <c r="G185">
         <v>163</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B183" t="s">
-        <v>92</v>
-      </c>
-      <c r="C183" t="s">
-        <v>33</v>
-      </c>
-      <c r="D183">
-        <v>-1</v>
-      </c>
-      <c r="E183" t="s">
-        <v>34</v>
-      </c>
-      <c r="F183">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B184" t="s">
-        <v>93</v>
-      </c>
-      <c r="C184" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184" t="s">
-        <v>8</v>
-      </c>
-      <c r="F184">
-        <v>75</v>
-      </c>
-      <c r="G184">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B185" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" t="s">
-        <v>94</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185" t="s">
-        <v>8</v>
-      </c>
-      <c r="F185">
-        <v>88</v>
-      </c>
-      <c r="G185">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44502</v>
       </c>
       <c r="B186" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C186" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E186" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F186">
-        <v>54</v>
-      </c>
-      <c r="G186">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44502</v>
       </c>
       <c r="B187" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -5092,196 +5089,196 @@
         <v>8</v>
       </c>
       <c r="F187">
-        <v>550</v>
+        <v>75</v>
       </c>
       <c r="G187">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44502</v>
       </c>
       <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>94</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188">
+        <v>88</v>
+      </c>
+      <c r="G188">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B189" t="s">
+        <v>95</v>
+      </c>
+      <c r="C189" t="s">
+        <v>44</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189">
+        <v>54</v>
+      </c>
+      <c r="G189">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B190" t="s">
+        <v>96</v>
+      </c>
+      <c r="C190" t="s">
+        <v>44</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190">
+        <v>550</v>
+      </c>
+      <c r="G190">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B191" t="s">
         <v>42</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C191" t="s">
         <v>12</v>
       </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188">
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191">
         <v>810</v>
       </c>
-      <c r="G188">
+      <c r="G191">
         <v>760</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B189" t="s">
-        <v>55</v>
-      </c>
-      <c r="C189" t="s">
-        <v>97</v>
-      </c>
-      <c r="D189">
-        <v>-1</v>
-      </c>
-      <c r="E189" t="s">
-        <v>5</v>
-      </c>
-      <c r="F189">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B190" t="s">
-        <v>98</v>
-      </c>
-      <c r="C190" t="s">
-        <v>23</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190" t="s">
-        <v>8</v>
-      </c>
-      <c r="F190">
-        <v>208</v>
-      </c>
-      <c r="G190">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B191" t="s">
-        <v>99</v>
-      </c>
-      <c r="C191" t="s">
-        <v>23</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-      <c r="E191" t="s">
-        <v>8</v>
-      </c>
-      <c r="F191">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44501</v>
       </c>
       <c r="B192" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D192">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E192" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F192">
-        <v>105</v>
-      </c>
-      <c r="G192">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44501</v>
       </c>
       <c r="B193" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C193" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F193">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G193">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44501</v>
       </c>
       <c r="B194" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
       </c>
       <c r="F194">
-        <v>175</v>
-      </c>
-      <c r="G194">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44501</v>
       </c>
       <c r="B195" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C195" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E195" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F195">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G195">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44501</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C196" t="s">
         <v>54</v>
@@ -5293,78 +5290,147 @@
         <v>90</v>
       </c>
       <c r="F196">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="G196">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44501</v>
       </c>
       <c r="B197" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C197" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F197">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="G197">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44501</v>
       </c>
       <c r="B198" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C198" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F198">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="G198">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44501</v>
       </c>
       <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>54</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>90</v>
+      </c>
+      <c r="F199">
+        <v>88</v>
+      </c>
+      <c r="G199">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B200" t="s">
+        <v>102</v>
+      </c>
+      <c r="C200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200">
+        <v>85</v>
+      </c>
+      <c r="G200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201">
+        <v>210</v>
+      </c>
+      <c r="G201">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B202" t="s">
         <v>104</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C202" t="s">
         <v>105</v>
       </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199" t="s">
-        <v>5</v>
-      </c>
-      <c r="F199">
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202">
         <v>204</v>
       </c>
-      <c r="G199">
+      <c r="G202">
         <v>210</v>
       </c>
     </row>

--- a/Analyst rating changes.xlsx
+++ b/Analyst rating changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Analyst-sentiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{9DEFBAD9-A5D7-4F66-B02B-D1AFDB653A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0E96EED-A0EA-45D4-8730-A6CE6B060DA7}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{9DEFBAD9-A5D7-4F66-B02B-D1AFDB653A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFEB159E-6391-493F-A14F-E96990717737}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="5205" windowWidth="35265" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -477,9 +477,6 @@
     <t>Target price local ccr</t>
   </si>
   <si>
-    <t>Target price old ccr</t>
-  </si>
-  <si>
     <t>GREEN</t>
   </si>
   <si>
@@ -508,6 +505,12 @@
   </si>
   <si>
     <t>NOBINA</t>
+  </si>
+  <si>
+    <t>FSKRS</t>
+  </si>
+  <si>
+    <t>Target price old local ccr</t>
   </si>
 </sst>
 </file>
@@ -860,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C20D-DE11-9641-971F-C3D4179070FE}">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,18 +896,18 @@
         <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -913,10 +916,10 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>240</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,19 +927,22 @@
         <v>44544</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>108</v>
+        <v>250</v>
+      </c>
+      <c r="G3">
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -944,42 +950,39 @@
         <v>44544</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>160</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>85</v>
-      </c>
-      <c r="G5">
-        <v>76</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -987,22 +990,22 @@
         <v>44543</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G6">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1010,22 +1013,22 @@
         <v>44543</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="G7">
-        <v>165</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1033,22 +1036,22 @@
         <v>44543</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>315</v>
+        <v>146</v>
       </c>
       <c r="G8">
-        <v>285</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1056,10 +1059,10 @@
         <v>44543</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1068,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1079,7 +1082,7 @@
         <v>44543</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -1091,10 +1094,10 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>249</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,42 +1105,45 @@
         <v>44543</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="G11">
-        <v>58</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44540</v>
+        <v>44543</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>265</v>
+        <v>57</v>
+      </c>
+      <c r="G12">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,19 +1154,16 @@
         <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>43.5</v>
-      </c>
-      <c r="G13">
-        <v>41.3</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,19 +1174,19 @@
         <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>73</v>
+        <v>43.5</v>
       </c>
       <c r="G14">
-        <v>82</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1191,30 +1194,33 @@
         <v>44540</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15">
-        <v>396</v>
+        <v>73</v>
+      </c>
+      <c r="G15">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1223,10 +1229,7 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>130</v>
-      </c>
-      <c r="G16">
-        <v>110</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,7 +1240,7 @@
         <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1246,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G17">
         <v>110</v>
@@ -1260,22 +1263,22 @@
         <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>145</v>
       </c>
       <c r="G18">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44539</v>
       </c>
@@ -1283,19 +1286,19 @@
         <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G19">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,7 +1306,7 @@
         <v>44539</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1312,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="G20">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,22 +1329,22 @@
         <v>44539</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G21">
-        <v>129</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,33 +1352,33 @@
         <v>44539</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="G22">
-        <v>69</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1384,10 +1387,10 @@
         <v>8</v>
       </c>
       <c r="F23">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="G23">
-        <v>225</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1395,10 +1398,10 @@
         <v>44538</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1407,10 +1410,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="G24">
-        <v>370</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,22 +1421,22 @@
         <v>44538</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="G25">
-        <v>111</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,42 +1447,42 @@
         <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F26">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G26">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B27" t="s">
         <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="G27">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1499,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G28">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1510,22 +1513,22 @@
         <v>44537</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="G29">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,22 +1536,22 @@
         <v>44537</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
       </c>
       <c r="F30">
-        <v>1097.46</v>
+        <v>220</v>
       </c>
       <c r="G30">
-        <v>1199.97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,42 +1559,42 @@
         <v>44537</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>640</v>
+        <v>1097.46</v>
+      </c>
+      <c r="G31">
+        <v>1199.97</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>181</v>
-      </c>
-      <c r="G32">
-        <v>235</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,22 +1602,22 @@
         <v>44536</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="G33">
-        <v>67</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,22 +1625,22 @@
         <v>44536</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="G34">
-        <v>235</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1648,39 +1651,39 @@
         <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35">
+        <v>170</v>
+      </c>
+      <c r="G35">
         <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36">
-        <v>300</v>
-      </c>
-      <c r="G36">
-        <v>270</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1688,19 +1691,22 @@
         <v>44533</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37">
-        <v>165</v>
+        <v>300</v>
+      </c>
+      <c r="G37">
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,22 +1714,19 @@
         <v>44533</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>250</v>
-      </c>
-      <c r="G38">
-        <v>230</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1731,22 +1734,22 @@
         <v>44533</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G39">
-        <v>1.19</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1754,22 +1757,22 @@
         <v>44533</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F40">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>261</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1777,22 +1780,22 @@
         <v>44533</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="G41">
-        <v>310</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,22 +1803,22 @@
         <v>44533</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>132</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F42">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="G42">
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,7 +1826,7 @@
         <v>44533</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
         <v>132</v>
@@ -1832,36 +1835,36 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>635</v>
+        <v>210</v>
       </c>
       <c r="G43">
-        <v>620</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>160</v>
+        <v>635</v>
       </c>
       <c r="G44">
-        <v>175</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,22 +1872,22 @@
         <v>44532</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G45">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,22 +1895,22 @@
         <v>44532</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="G46">
-        <v>210</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1915,7 +1918,7 @@
         <v>44532</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
@@ -1927,10 +1930,10 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>555</v>
+        <v>240</v>
       </c>
       <c r="G47">
-        <v>545</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1938,7 +1941,7 @@
         <v>44532</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
         <v>56</v>
@@ -1947,13 +1950,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>290</v>
+        <v>555</v>
       </c>
       <c r="G48">
-        <v>285</v>
+        <v>545</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,7 +1964,7 @@
         <v>44532</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -1973,10 +1976,10 @@
         <v>8</v>
       </c>
       <c r="F49">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G49">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1984,7 +1987,7 @@
         <v>44532</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
@@ -2004,25 +2007,25 @@
     </row>
     <row r="51" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
       </c>
       <c r="F51">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="G51">
-        <v>480</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2030,22 +2033,22 @@
         <v>44531</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="G52">
-        <v>86</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,22 +2056,22 @@
         <v>44531</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F53">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="G53">
-        <v>150</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,7 +2079,7 @@
         <v>44531</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2085,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>0.5</v>
+        <v>175</v>
       </c>
       <c r="G54">
-        <v>1.2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2099,22 +2102,22 @@
         <v>44531</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F55">
-        <v>115</v>
+        <v>0.5</v>
       </c>
       <c r="G55">
-        <v>130</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,10 +2125,10 @@
         <v>44531</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2134,10 +2137,10 @@
         <v>8</v>
       </c>
       <c r="F56">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G56">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,68 +2148,68 @@
         <v>44531</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="G57">
-        <v>235</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F58">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="G58">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44530</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G59">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,22 +2217,22 @@
         <v>44530</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F60">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G60">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2237,10 +2240,10 @@
         <v>44530</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2249,10 +2252,10 @@
         <v>57</v>
       </c>
       <c r="F61">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G61">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,39 +2263,45 @@
         <v>44530</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F62">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="G62">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
+      </c>
+      <c r="F63">
+        <v>145</v>
+      </c>
+      <c r="G63">
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,22 +2309,16 @@
         <v>44529</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64">
-        <v>340</v>
-      </c>
-      <c r="G64">
-        <v>320</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2323,10 +2326,10 @@
         <v>44529</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2335,10 +2338,10 @@
         <v>8</v>
       </c>
       <c r="F65">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="G65">
-        <v>370</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2346,16 +2349,16 @@
         <v>44529</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
         <v>97</v>
       </c>
       <c r="D66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F66">
         <v>360</v>
@@ -2369,22 +2372,22 @@
         <v>44529</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>612</v>
+        <v>360</v>
       </c>
       <c r="G67">
-        <v>476</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,45 +2395,45 @@
         <v>44529</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
         <v>33</v>
       </c>
       <c r="D68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F68">
-        <v>204</v>
+        <v>612</v>
       </c>
       <c r="G68">
-        <v>204</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="G69">
-        <v>120</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2438,10 +2441,10 @@
         <v>44525</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2450,10 +2453,10 @@
         <v>8</v>
       </c>
       <c r="F70">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G70">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2461,22 +2464,22 @@
         <v>44525</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F71">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="G71">
-        <v>240</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2484,22 +2487,22 @@
         <v>44525</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F72">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="G72">
-        <v>135</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2507,19 +2510,22 @@
         <v>44525</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F73">
-        <v>35</v>
+        <v>155</v>
+      </c>
+      <c r="G73">
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2527,10 +2533,10 @@
         <v>44525</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2539,41 +2545,38 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>510</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
       </c>
       <c r="F75">
-        <v>965.2</v>
-      </c>
-      <c r="G75">
-        <v>822.96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44524</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2582,10 +2585,10 @@
         <v>5</v>
       </c>
       <c r="F76">
-        <v>53.34</v>
+        <v>965.2</v>
       </c>
       <c r="G76">
-        <v>55.88</v>
+        <v>822.96</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,22 +2596,22 @@
         <v>44524</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>162.56</v>
+        <v>53.34</v>
       </c>
       <c r="G77">
-        <v>166.624</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2616,22 +2619,22 @@
         <v>44524</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F78">
-        <v>310</v>
+        <v>162.56</v>
       </c>
       <c r="G78">
-        <v>260</v>
+        <v>166.624</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2639,22 +2642,22 @@
         <v>44524</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F79">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="G79">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,10 +2665,10 @@
         <v>44524</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2674,10 +2677,10 @@
         <v>5</v>
       </c>
       <c r="F80">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="G80">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2685,22 +2688,22 @@
         <v>44524</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="G81">
-        <v>87</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,22 +2711,22 @@
         <v>44524</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="F82">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="G82">
-        <v>270</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,7 +2734,7 @@
         <v>44524</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C83" t="s">
         <v>118</v>
@@ -2743,10 +2746,10 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="G83">
-        <v>150</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,10 +2757,10 @@
         <v>44524</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2766,35 +2769,33 @@
         <v>8</v>
       </c>
       <c r="F84">
-        <v>435</v>
+        <v>185</v>
       </c>
       <c r="G84">
-        <v>370</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <f>10.5*7.08</f>
-        <v>74.34</v>
+        <v>435</v>
       </c>
       <c r="G85">
-        <f>12.5*7.08</f>
-        <v>88.5</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2802,22 +2803,24 @@
         <v>44523</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F86">
-        <v>477</v>
+        <f>10.5*7.08</f>
+        <v>74.34</v>
       </c>
       <c r="G86">
-        <v>483</v>
+        <f>12.5*7.08</f>
+        <v>88.5</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2825,22 +2828,22 @@
         <v>44523</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>128</v>
+        <v>477</v>
       </c>
       <c r="G87">
-        <v>122</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2848,10 +2851,10 @@
         <v>44523</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2860,10 +2863,10 @@
         <v>5</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="G88">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2871,22 +2874,22 @@
         <v>44523</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F89">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G89">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2894,10 +2897,10 @@
         <v>44523</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2906,76 +2909,79 @@
         <v>8</v>
       </c>
       <c r="F90">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="G90">
-        <v>300</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
       <c r="F91">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="G91">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44522</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
       </c>
       <c r="F92">
-        <v>1145.7</v>
+        <v>370</v>
       </c>
       <c r="G92">
-        <v>1181.8800000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44522</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F93">
-        <v>35</v>
+        <v>1145.7</v>
+      </c>
+      <c r="G93">
+        <v>1181.8800000000001</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,22 +2989,19 @@
         <v>44522</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
         <v>30</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
       </c>
       <c r="F94">
-        <v>126</v>
-      </c>
-      <c r="G94">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3006,39 +3009,45 @@
         <v>44522</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F95">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="G95">
-        <v>185</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
       </c>
       <c r="D96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>200</v>
+      </c>
+      <c r="G96">
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3046,22 +3055,16 @@
         <v>44519</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>-1</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
-      </c>
-      <c r="F97">
-        <v>500</v>
-      </c>
-      <c r="G97">
-        <v>540</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3069,22 +3072,22 @@
         <v>44519</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="G98">
-        <v>160</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3092,10 +3095,10 @@
         <v>44519</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3104,10 +3107,10 @@
         <v>8</v>
       </c>
       <c r="F99">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G99">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3115,10 +3118,10 @@
         <v>44519</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3127,18 +3130,18 @@
         <v>8</v>
       </c>
       <c r="F100">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="G100">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -3150,10 +3153,10 @@
         <v>8</v>
       </c>
       <c r="F101">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="G101">
-        <v>137</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3161,22 +3164,22 @@
         <v>44518</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="G102">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3184,22 +3187,22 @@
         <v>44518</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F103">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G103">
-        <v>160.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,10 +3210,10 @@
         <v>44518</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3219,10 +3222,10 @@
         <v>8</v>
       </c>
       <c r="F104">
-        <v>483</v>
+        <v>142</v>
       </c>
       <c r="G104">
-        <v>471</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3230,39 +3233,39 @@
         <v>44518</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
+      </c>
+      <c r="F105">
+        <v>483</v>
+      </c>
+      <c r="G105">
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106">
-        <v>72</v>
-      </c>
-      <c r="G106">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3270,19 +3273,22 @@
         <v>44517</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D107">
         <v>-1</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F107">
-        <v>1050</v>
+        <v>72</v>
+      </c>
+      <c r="G107">
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3293,19 +3299,16 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F108">
-        <v>1100</v>
-      </c>
-      <c r="G108">
-        <v>990</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3313,19 +3316,22 @@
         <v>44517</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F109">
-        <v>261</v>
+        <v>1100</v>
+      </c>
+      <c r="G109">
+        <v>990</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3333,19 +3339,19 @@
         <v>44517</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F110">
-        <v>155</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3356,19 +3362,16 @@
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F111">
-        <v>145</v>
-      </c>
-      <c r="G111">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3376,22 +3379,22 @@
         <v>44517</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F112">
-        <v>327</v>
+        <v>145</v>
       </c>
       <c r="G112">
-        <v>320</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3399,7 +3402,7 @@
         <v>44517</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3411,10 +3414,10 @@
         <v>8</v>
       </c>
       <c r="F113">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="G113">
-        <v>96</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3422,10 +3425,10 @@
         <v>44517</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3434,21 +3437,21 @@
         <v>8</v>
       </c>
       <c r="F114">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="G114">
-        <v>180</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3457,10 +3460,10 @@
         <v>8</v>
       </c>
       <c r="F115">
-        <v>1145</v>
+        <v>150</v>
       </c>
       <c r="G115">
-        <v>1160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3468,7 +3471,7 @@
         <v>44516</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
@@ -3477,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <v>118</v>
+        <v>1145</v>
       </c>
       <c r="G116">
-        <v>123</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3491,22 +3494,22 @@
         <v>44516</v>
       </c>
       <c r="B117" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F117">
-        <v>380</v>
+        <v>118</v>
       </c>
       <c r="G117">
-        <v>357</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,45 +3517,45 @@
         <v>44516</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F118">
-        <v>685</v>
+        <v>380</v>
       </c>
       <c r="G118">
-        <v>558</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F119">
-        <v>165</v>
+        <v>685</v>
       </c>
       <c r="G119">
-        <v>165</v>
+        <v>558</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3560,22 +3563,22 @@
         <v>44515</v>
       </c>
       <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" t="s">
         <v>23</v>
       </c>
-      <c r="C120" t="s">
-        <v>33</v>
-      </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F120">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="G120">
-        <v>117</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3583,22 +3586,22 @@
         <v>44515</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F121">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G121">
-        <v>180</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3606,10 +3609,10 @@
         <v>44515</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3618,10 +3621,10 @@
         <v>5</v>
       </c>
       <c r="F122">
-        <v>2.7</v>
+        <v>136</v>
       </c>
       <c r="G122">
-        <v>2.8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3629,22 +3632,22 @@
         <v>44515</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F123">
-        <v>70</v>
+        <v>2.7</v>
       </c>
       <c r="G123">
-        <v>54</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3652,7 +3655,7 @@
         <v>44515</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C124" t="s">
         <v>21</v>
@@ -3661,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F124">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="G124">
-        <v>206</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3675,7 +3678,7 @@
         <v>44515</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
@@ -3684,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F125">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="G125">
-        <v>17</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3698,22 +3701,22 @@
         <v>44515</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F126">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="G126">
-        <v>112</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3724,13 +3727,19 @@
         <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>103</v>
+      </c>
+      <c r="G127">
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3738,22 +3747,16 @@
         <v>44515</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128">
-        <v>960</v>
-      </c>
-      <c r="G128">
-        <v>800</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3761,22 +3764,22 @@
         <v>44515</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F129">
-        <v>58</v>
+        <v>960</v>
       </c>
       <c r="G129">
-        <v>70</v>
+        <v>800</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3787,7 +3790,7 @@
         <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3796,10 +3799,10 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G130">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3807,10 +3810,10 @@
         <v>44515</v>
       </c>
       <c r="B131" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3819,10 +3822,10 @@
         <v>8</v>
       </c>
       <c r="F131">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G131">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3830,45 +3833,45 @@
         <v>44515</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C132" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
       </c>
       <c r="F132">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="G132">
-        <v>120</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
       </c>
       <c r="F133">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G133">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3876,10 +3879,10 @@
         <v>44512</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3888,10 +3891,10 @@
         <v>8</v>
       </c>
       <c r="F134">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="G134">
-        <v>85</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,7 +3902,7 @@
         <v>44512</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C135" t="s">
         <v>45</v>
@@ -3922,10 +3925,10 @@
         <v>44512</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -3934,10 +3937,10 @@
         <v>8</v>
       </c>
       <c r="F136">
-        <v>697</v>
+        <v>90</v>
       </c>
       <c r="G136">
-        <v>640</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3945,7 +3948,7 @@
         <v>44512</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C137" t="s">
         <v>44</v>
@@ -3957,10 +3960,10 @@
         <v>8</v>
       </c>
       <c r="F137">
-        <v>197</v>
+        <v>697</v>
       </c>
       <c r="G137">
-        <v>185</v>
+        <v>640</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3968,7 +3971,7 @@
         <v>44512</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s">
         <v>44</v>
@@ -3977,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F138">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="G138">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3994,7 +3997,7 @@
         <v>38</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -4003,10 +4006,10 @@
         <v>5</v>
       </c>
       <c r="F139">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G139">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4014,45 +4017,45 @@
         <v>44512</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C140" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F140">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="G140">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C141" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
       </c>
       <c r="F141">
-        <v>340</v>
+        <v>31</v>
       </c>
       <c r="G141">
-        <v>295</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4060,19 +4063,22 @@
         <v>44511</v>
       </c>
       <c r="B142" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C142" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F142">
-        <v>310</v>
+        <v>340</v>
+      </c>
+      <c r="G142">
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4080,22 +4086,19 @@
         <v>44511</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F143">
-        <v>360</v>
-      </c>
-      <c r="G143">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4103,10 +4106,10 @@
         <v>44511</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -4115,10 +4118,10 @@
         <v>8</v>
       </c>
       <c r="F144">
-        <v>990</v>
+        <v>360</v>
       </c>
       <c r="G144">
-        <v>930</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4126,45 +4129,45 @@
         <v>44511</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F145">
-        <v>75</v>
+        <v>990</v>
       </c>
       <c r="G145">
-        <v>145</v>
+        <v>930</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B146" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E146" t="s">
         <v>5</v>
       </c>
       <c r="F146">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G146">
-        <v>45</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4172,22 +4175,22 @@
         <v>44510</v>
       </c>
       <c r="B147" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C147" t="s">
+        <v>31</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>51</v>
+      </c>
+      <c r="G147">
         <v>45</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147">
-        <v>325</v>
-      </c>
-      <c r="G147">
-        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4195,7 +4198,7 @@
         <v>44510</v>
       </c>
       <c r="B148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C148" t="s">
         <v>45</v>
@@ -4204,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F148">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="G148">
-        <v>190</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4218,10 +4221,10 @@
         <v>44510</v>
       </c>
       <c r="B149" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -4230,10 +4233,10 @@
         <v>8</v>
       </c>
       <c r="F149">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G149">
-        <v>30</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4241,10 +4244,10 @@
         <v>44510</v>
       </c>
       <c r="B150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -4253,10 +4256,10 @@
         <v>8</v>
       </c>
       <c r="F150">
-        <v>497</v>
+        <v>32</v>
       </c>
       <c r="G150">
-        <v>512</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4264,22 +4267,22 @@
         <v>44510</v>
       </c>
       <c r="B151" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F151">
-        <v>360</v>
+        <v>497</v>
       </c>
       <c r="G151">
-        <v>340</v>
+        <v>512</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4287,22 +4290,22 @@
         <v>44510</v>
       </c>
       <c r="B152" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>92.5</v>
+        <v>360</v>
       </c>
       <c r="G152">
-        <v>83</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4310,10 +4313,10 @@
         <v>44510</v>
       </c>
       <c r="B153" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C153" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -4322,10 +4325,10 @@
         <v>8</v>
       </c>
       <c r="F153">
-        <v>100</v>
+        <v>92.5</v>
       </c>
       <c r="G153">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4333,22 +4336,22 @@
         <v>44510</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F154">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="G154">
-        <v>175</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4356,22 +4359,22 @@
         <v>44510</v>
       </c>
       <c r="B155" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F155">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="G155">
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4379,7 +4382,7 @@
         <v>44510</v>
       </c>
       <c r="B156" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C156" t="s">
         <v>44</v>
@@ -4391,7 +4394,7 @@
         <v>8</v>
       </c>
       <c r="F156">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G156">
         <v>140</v>
@@ -4399,22 +4402,25 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B157" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C157" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
       </c>
       <c r="F157">
-        <v>240</v>
+        <v>160</v>
+      </c>
+      <c r="G157">
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4422,10 +4428,10 @@
         <v>44509</v>
       </c>
       <c r="B158" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -4434,10 +4440,7 @@
         <v>8</v>
       </c>
       <c r="F158">
-        <v>211</v>
-      </c>
-      <c r="G158">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4445,22 +4448,22 @@
         <v>44509</v>
       </c>
       <c r="B159" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F159">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="G159">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,22 +4471,22 @@
         <v>44509</v>
       </c>
       <c r="B160" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F160">
-        <v>575</v>
+        <v>248</v>
       </c>
       <c r="G160">
-        <v>545</v>
+        <v>231</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4491,10 +4494,10 @@
         <v>44509</v>
       </c>
       <c r="B161" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -4503,30 +4506,33 @@
         <v>8</v>
       </c>
       <c r="F161">
-        <v>328</v>
+        <v>575</v>
       </c>
       <c r="G161">
-        <v>310</v>
+        <v>545</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B162" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C162" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F162">
-        <v>170</v>
+        <v>328</v>
+      </c>
+      <c r="G162">
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4534,22 +4540,19 @@
         <v>44505</v>
       </c>
       <c r="B163" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F163">
-        <v>180</v>
-      </c>
-      <c r="G163">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4557,22 +4560,22 @@
         <v>44505</v>
       </c>
       <c r="B164" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F164">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="G164">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4583,19 +4586,19 @@
         <v>60</v>
       </c>
       <c r="C165" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F165">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G165">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4606,7 +4609,7 @@
         <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -4615,10 +4618,10 @@
         <v>8</v>
       </c>
       <c r="F166">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G166">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4629,7 +4632,7 @@
         <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -4638,10 +4641,10 @@
         <v>8</v>
       </c>
       <c r="F167">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G167">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4652,19 +4655,19 @@
         <v>60</v>
       </c>
       <c r="C168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F168">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G168">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4672,10 +4675,10 @@
         <v>44505</v>
       </c>
       <c r="B169" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -4684,10 +4687,10 @@
         <v>5</v>
       </c>
       <c r="F169">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="G169">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4695,10 +4698,10 @@
         <v>44505</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -4707,10 +4710,10 @@
         <v>5</v>
       </c>
       <c r="F170">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="G170">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,7 +4724,7 @@
         <v>28</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -4730,10 +4733,10 @@
         <v>5</v>
       </c>
       <c r="F171">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G171">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4741,42 +4744,45 @@
         <v>44505</v>
       </c>
       <c r="B172" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F172">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="G172">
-        <v>300</v>
+        <v>111</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B173" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C173" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F173">
-        <v>123</v>
+        <v>275</v>
+      </c>
+      <c r="G173">
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4784,22 +4790,19 @@
         <v>44504</v>
       </c>
       <c r="B174" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E174" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F174">
-        <v>115</v>
-      </c>
-      <c r="G174">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4807,22 +4810,22 @@
         <v>44504</v>
       </c>
       <c r="B175" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C175" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F175">
-        <v>350</v>
+        <v>115</v>
       </c>
       <c r="G175">
-        <v>245</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4830,7 +4833,7 @@
         <v>44504</v>
       </c>
       <c r="B176" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -4839,33 +4842,36 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F176">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="G176">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B177" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C177" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
       </c>
       <c r="F177">
-        <v>272</v>
+        <v>281</v>
+      </c>
+      <c r="G177">
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4873,22 +4879,19 @@
         <v>44503</v>
       </c>
       <c r="B178" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F178">
-        <v>95</v>
-      </c>
-      <c r="G178">
-        <v>100</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4896,10 +4899,10 @@
         <v>44503</v>
       </c>
       <c r="B179" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4908,10 +4911,10 @@
         <v>8</v>
       </c>
       <c r="F179">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="G179">
-        <v>176</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4919,10 +4922,10 @@
         <v>44503</v>
       </c>
       <c r="B180" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -4931,10 +4934,10 @@
         <v>8</v>
       </c>
       <c r="F180">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="G180">
-        <v>270</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4942,7 +4945,7 @@
         <v>44503</v>
       </c>
       <c r="B181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C181" t="s">
         <v>31</v>
@@ -4951,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F181">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="G181">
-        <v>125</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4965,22 +4968,22 @@
         <v>44503</v>
       </c>
       <c r="B182" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C182" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F182">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G182">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4988,7 +4991,7 @@
         <v>44503</v>
       </c>
       <c r="B183" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C183" t="s">
         <v>54</v>
@@ -4997,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F183">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G183">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5011,7 +5014,7 @@
         <v>44503</v>
       </c>
       <c r="B184" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C184" t="s">
         <v>54</v>
@@ -5020,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F184">
-        <v>540</v>
+        <v>123</v>
       </c>
       <c r="G184">
-        <v>530</v>
+        <v>120</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5034,42 +5037,45 @@
         <v>44503</v>
       </c>
       <c r="B185" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F185">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="G185">
-        <v>163</v>
+        <v>530</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B186" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F186">
-        <v>59</v>
+        <v>140</v>
+      </c>
+      <c r="G186">
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5077,22 +5083,19 @@
         <v>44502</v>
       </c>
       <c r="B187" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E187" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F187">
-        <v>75</v>
-      </c>
-      <c r="G187">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5100,10 +5103,10 @@
         <v>44502</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C188" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -5112,10 +5115,10 @@
         <v>8</v>
       </c>
       <c r="F188">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G188">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,10 +5126,10 @@
         <v>44502</v>
       </c>
       <c r="B189" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -5135,10 +5138,10 @@
         <v>8</v>
       </c>
       <c r="F189">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G189">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5146,7 +5149,7 @@
         <v>44502</v>
       </c>
       <c r="B190" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C190" t="s">
         <v>44</v>
@@ -5158,10 +5161,10 @@
         <v>8</v>
       </c>
       <c r="F190">
-        <v>550</v>
+        <v>54</v>
       </c>
       <c r="G190">
-        <v>540</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5169,10 +5172,10 @@
         <v>44502</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C191" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -5181,30 +5184,33 @@
         <v>8</v>
       </c>
       <c r="F191">
-        <v>810</v>
+        <v>550</v>
       </c>
       <c r="G191">
-        <v>760</v>
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B192" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C192" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F192">
-        <v>360</v>
+        <v>810</v>
+      </c>
+      <c r="G192">
+        <v>760</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5212,22 +5218,19 @@
         <v>44501</v>
       </c>
       <c r="B193" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F193">
-        <v>208</v>
-      </c>
-      <c r="G193">
-        <v>206</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5235,19 +5238,22 @@
         <v>44501</v>
       </c>
       <c r="B194" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C194" t="s">
         <v>23</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194" t="s">
         <v>8</v>
       </c>
       <c r="F194">
-        <v>151</v>
+        <v>208</v>
+      </c>
+      <c r="G194">
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5258,19 +5264,16 @@
         <v>99</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D195">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F195">
-        <v>105</v>
-      </c>
-      <c r="G195">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5278,22 +5281,22 @@
         <v>44501</v>
       </c>
       <c r="B196" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C196" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E196" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F196">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="G196">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5301,19 +5304,19 @@
         <v>44501</v>
       </c>
       <c r="B197" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="F197">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="G197">
         <v>192</v>
@@ -5324,22 +5327,22 @@
         <v>44501</v>
       </c>
       <c r="B198" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C198" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F198">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="G198">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5347,7 +5350,7 @@
         <v>44501</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C199" t="s">
         <v>54</v>
@@ -5359,10 +5362,10 @@
         <v>90</v>
       </c>
       <c r="F199">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="G199">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5370,22 +5373,22 @@
         <v>44501</v>
       </c>
       <c r="B200" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F200">
+        <v>88</v>
+      </c>
+      <c r="G200">
         <v>85</v>
-      </c>
-      <c r="G200">
-        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5393,7 +5396,7 @@
         <v>44501</v>
       </c>
       <c r="B201" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C201" t="s">
         <v>23</v>
@@ -5402,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F201">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="G201">
-        <v>215</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5416,21 +5419,44 @@
         <v>44501</v>
       </c>
       <c r="B202" t="s">
+        <v>103</v>
+      </c>
+      <c r="C202" t="s">
+        <v>23</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202">
+        <v>210</v>
+      </c>
+      <c r="G202">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B203" t="s">
         <v>104</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>105</v>
       </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202" t="s">
-        <v>5</v>
-      </c>
-      <c r="F202">
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203">
         <v>204</v>
       </c>
-      <c r="G202">
+      <c r="G203">
         <v>210</v>
       </c>
     </row>

--- a/Analyst rating changes.xlsx
+++ b/Analyst rating changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Analyst-sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2267EA74-D12A-45AA-AC7E-165C89F65377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14B83C-57F9-412B-84AE-F94BCD2A117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -529,6 +529,21 @@
   </si>
   <si>
     <t>NESTE</t>
+  </si>
+  <si>
+    <t>NOKIA</t>
+  </si>
+  <si>
+    <t>MAERSK B</t>
+  </si>
+  <si>
+    <t>HOFI</t>
+  </si>
+  <si>
+    <t>AKRBP</t>
+  </si>
+  <si>
+    <t>DOM</t>
   </si>
 </sst>
 </file>
@@ -881,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971C20D-DE11-9641-971F-C3D4179070FE}">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,168 +934,174 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44551</v>
+        <v>44553</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>746</v>
+        <v>23.5</v>
       </c>
       <c r="G2">
-        <v>760</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44551</v>
+        <v>44553</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>55</v>
+        <v>24.5</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44551</v>
+        <v>44553</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>145</v>
+        <v>6.5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>44551</v>
+        <v>44553</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>765</v>
+        <v>270</v>
       </c>
       <c r="G5">
-        <v>805</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>650</v>
+        <v>71</v>
       </c>
       <c r="G6">
-        <v>635</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="G8">
-        <v>146</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1089,44 +1110,44 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="G9">
-        <v>72</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>44550</v>
+        <v>44552</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G10">
-        <v>128</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1135,64 +1156,61 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>210</v>
+        <v>746</v>
       </c>
       <c r="G11">
-        <v>195</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13">
-        <v>132</v>
-      </c>
-      <c r="G13">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1201,21 +1219,21 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>1750</v>
+        <v>765</v>
       </c>
       <c r="G14">
-        <v>1950</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1224,21 +1242,21 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>164</v>
+        <v>650</v>
       </c>
       <c r="G15">
-        <v>144</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>44547</v>
+        <v>44551</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1247,44 +1265,44 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="G16">
-        <v>185</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G17">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1293,21 +1311,21 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="G18">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>44546</v>
+        <v>44550</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1316,21 +1334,21 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1339,21 +1357,21 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="G20">
-        <v>240</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44544</v>
+        <v>44550</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -1362,38 +1380,41 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22">
-        <v>160</v>
+        <v>132</v>
+      </c>
+      <c r="G22">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1402,90 +1423,90 @@
         <v>8</v>
       </c>
       <c r="F23">
-        <v>85</v>
+        <v>1750</v>
       </c>
       <c r="G23">
-        <v>76</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="G24">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="F25">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="G25">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="G26">
-        <v>285</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1494,44 +1515,44 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="G27">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>44543</v>
+        <v>44546</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="G28">
-        <v>249</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1540,21 +1561,21 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="G29">
-        <v>58</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>-1</v>
@@ -1563,84 +1584,84 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <v>265</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>44540</v>
+        <v>44544</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31">
-        <v>43.5</v>
-      </c>
-      <c r="G31">
-        <v>41.3</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>44540</v>
+        <v>44543</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G32">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>44540</v>
+        <v>44543</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
       </c>
       <c r="F33">
-        <v>396</v>
+        <v>110</v>
+      </c>
+      <c r="G33">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>-1</v>
@@ -1649,386 +1670,383 @@
         <v>5</v>
       </c>
       <c r="F34">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G34">
-        <v>110</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
       </c>
       <c r="F35">
-        <v>145</v>
+        <v>315</v>
       </c>
       <c r="G35">
-        <v>110</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>55</v>
+      </c>
+      <c r="G36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>57</v>
+      </c>
+      <c r="G38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>43.5</v>
+      </c>
+      <c r="G40">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>73</v>
+      </c>
+      <c r="G41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>44539</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B43" t="s">
         <v>123</v>
       </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36">
-        <v>145</v>
-      </c>
-      <c r="G36">
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="G43">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>44539</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B44" t="s">
         <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>123</v>
-      </c>
-      <c r="G37">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>44539</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38">
-        <v>240</v>
-      </c>
-      <c r="G38">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>44539</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>135</v>
-      </c>
-      <c r="G39">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>44539</v>
-      </c>
-      <c r="B40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <v>70</v>
-      </c>
-      <c r="G40">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>44538</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>210</v>
-      </c>
-      <c r="G41">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>44538</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42">
-        <v>400</v>
-      </c>
-      <c r="G42">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>44538</v>
-      </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43">
-        <v>108</v>
-      </c>
-      <c r="G43">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>44538</v>
-      </c>
-      <c r="B44" t="s">
-        <v>149</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
       </c>
       <c r="F44">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="G44">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>145</v>
+      </c>
+      <c r="G45">
         <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>44537</v>
-      </c>
-      <c r="B45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45">
-        <v>180</v>
-      </c>
-      <c r="G45">
-        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G46">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G47">
-        <v>140</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
       <c r="F48">
-        <v>1097.46</v>
+        <v>135</v>
       </c>
       <c r="G48">
-        <v>1199.97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>44537</v>
+        <v>44539</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
       </c>
       <c r="F49">
-        <v>640</v>
+        <v>70</v>
+      </c>
+      <c r="G49">
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="G50">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2037,64 +2055,67 @@
         <v>8</v>
       </c>
       <c r="F51">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="G51">
-        <v>67</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F52">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="G52">
-        <v>235</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>44536</v>
+        <v>44538</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>235</v>
+        <v>115</v>
+      </c>
+      <c r="G53">
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2103,202 +2124,199 @@
         <v>8</v>
       </c>
       <c r="F54">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="G54">
-        <v>270</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
       <c r="F55">
-        <v>165</v>
+        <v>120</v>
+      </c>
+      <c r="G55">
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
       </c>
       <c r="F56">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="G56">
-        <v>230</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>1097.46</v>
       </c>
       <c r="G57">
-        <v>1.19</v>
+        <v>1199.97</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>44533</v>
+        <v>44537</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>348</v>
-      </c>
-      <c r="G58">
-        <v>261</v>
+        <v>640</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="G59">
-        <v>310</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F60">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="G60">
-        <v>200</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>635</v>
+        <v>170</v>
       </c>
       <c r="G61">
-        <v>620</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>44532</v>
+        <v>44536</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F62">
-        <v>160</v>
-      </c>
-      <c r="G62">
-        <v>175</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2307,44 +2325,41 @@
         <v>8</v>
       </c>
       <c r="F63">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="G63">
-        <v>145</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>240</v>
-      </c>
-      <c r="G64">
-        <v>210</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2353,18 +2368,18 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>555</v>
+        <v>250</v>
       </c>
       <c r="G65">
-        <v>545</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
         <v>56</v>
@@ -2373,93 +2388,93 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F66">
-        <v>290</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>285</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="G67">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F68">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="G68">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G69">
-        <v>480</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>44531</v>
+        <v>44533</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2468,21 +2483,21 @@
         <v>8</v>
       </c>
       <c r="F70">
-        <v>85</v>
+        <v>635</v>
       </c>
       <c r="G70">
-        <v>86</v>
+        <v>620</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2491,18 +2506,18 @@
         <v>5</v>
       </c>
       <c r="F71">
+        <v>160</v>
+      </c>
+      <c r="G71">
         <v>175</v>
-      </c>
-      <c r="G71">
-        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
@@ -2511,185 +2526,185 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>0.5</v>
+        <v>155</v>
       </c>
       <c r="G72">
-        <v>1.2</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="G73">
-        <v>130</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F74">
-        <v>86</v>
+        <v>555</v>
       </c>
       <c r="G74">
-        <v>80</v>
+        <v>545</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F75">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="G75">
-        <v>235</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>265</v>
+      </c>
+      <c r="G76">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>265</v>
+      </c>
+      <c r="G77">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>500</v>
+      </c>
+      <c r="G78">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" t="s">
         <v>45</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76">
-        <v>66</v>
-      </c>
-      <c r="G76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77">
-        <v>32</v>
-      </c>
-      <c r="G77">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>132</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78">
-        <v>64</v>
-      </c>
-      <c r="G78">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" t="s">
-        <v>31</v>
-      </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G79">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2698,61 +2713,67 @@
         <v>5</v>
       </c>
       <c r="F80">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G80">
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F81">
+        <v>0.5</v>
+      </c>
+      <c r="G81">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>115</v>
+      </c>
+      <c r="G82">
         <v>130</v>
       </c>
-      <c r="C82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82">
-        <v>340</v>
-      </c>
-      <c r="G82">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2761,136 +2782,136 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>360</v>
+        <v>86</v>
       </c>
       <c r="G83">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F84">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="G84">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>612</v>
+        <v>66</v>
       </c>
       <c r="G85">
-        <v>476</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F86">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="G86">
-        <v>204</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>44525</v>
+        <v>44530</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F87">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="G87">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>44525</v>
+        <v>44530</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F88">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="G88">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>44525</v>
+        <v>44530</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2899,543 +2920,540 @@
         <v>5</v>
       </c>
       <c r="F89">
-        <v>285</v>
+        <v>145</v>
       </c>
       <c r="G89">
-        <v>240</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90">
-        <v>155</v>
-      </c>
-      <c r="G90">
-        <v>135</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F91">
-        <v>35</v>
+        <v>340</v>
+      </c>
+      <c r="G91">
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>44525</v>
+        <v>44529</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F92">
-        <v>510</v>
+        <v>360</v>
+      </c>
+      <c r="G92">
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>44524</v>
+        <v>44529</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
       </c>
       <c r="F93">
-        <v>965.2</v>
+        <v>360</v>
       </c>
       <c r="G93">
-        <v>822.96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>44524</v>
+        <v>44529</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F94">
-        <v>53.34</v>
+        <v>612</v>
       </c>
       <c r="G94">
-        <v>55.88</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>44524</v>
+        <v>44529</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F95">
-        <v>162.56</v>
+        <v>204</v>
       </c>
       <c r="G95">
-        <v>166.624</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F96">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="G96">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F97">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="G97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B98" t="s">
         <v>122</v>
       </c>
       <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>285</v>
+      </c>
+      <c r="G98">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>155</v>
+      </c>
+      <c r="G99">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" t="s">
         <v>70</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98">
-        <v>274</v>
-      </c>
-      <c r="G98">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B99" t="s">
-        <v>121</v>
-      </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99">
-        <v>97</v>
-      </c>
-      <c r="G99">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B100" t="s">
-        <v>120</v>
-      </c>
-      <c r="C100" t="s">
-        <v>118</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F100">
-        <v>340</v>
-      </c>
-      <c r="G100">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>185</v>
-      </c>
-      <c r="G101">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44524</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F102">
-        <v>435</v>
+        <v>965.2</v>
       </c>
       <c r="G102">
-        <v>370</v>
+        <v>822.96</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>53.34</v>
+      </c>
+      <c r="G103">
+        <v>55.88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <v>162.56</v>
+      </c>
+      <c r="G104">
+        <v>166.624</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105">
+        <v>-1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105">
+        <v>310</v>
+      </c>
+      <c r="G105">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>105</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>274</v>
+      </c>
+      <c r="G107">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>97</v>
+      </c>
+      <c r="G108">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109">
+        <v>340</v>
+      </c>
+      <c r="G109">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>185</v>
+      </c>
+      <c r="G110">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111">
+        <v>435</v>
+      </c>
+      <c r="G111">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <v>44523</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B112" t="s">
         <v>116</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C112" t="s">
         <v>117</v>
       </c>
-      <c r="D103">
+      <c r="D112">
         <v>-1</v>
       </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103">
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112">
         <f>10.5*7.08</f>
         <v>74.34</v>
       </c>
-      <c r="G103">
+      <c r="G112">
         <f>12.5*7.08</f>
         <v>88.5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B104" t="s">
-        <v>26</v>
-      </c>
-      <c r="C104" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104">
-        <v>477</v>
-      </c>
-      <c r="G104">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B105" t="s">
-        <v>115</v>
-      </c>
-      <c r="C105" t="s">
-        <v>44</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105">
-        <v>128</v>
-      </c>
-      <c r="G105">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B106" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" t="s">
-        <v>78</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106">
-        <v>100</v>
-      </c>
-      <c r="G106">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" t="s">
-        <v>94</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107">
-        <v>82</v>
-      </c>
-      <c r="G107">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108">
-        <v>310</v>
-      </c>
-      <c r="G108">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B109" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" t="s">
-        <v>113</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109">
-        <v>370</v>
-      </c>
-      <c r="G109">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B110" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" t="s">
-        <v>44</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110">
-        <v>1145.7</v>
-      </c>
-      <c r="G110">
-        <v>1181.8800000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B111" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" t="s">
-        <v>30</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B112" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" t="s">
-        <v>30</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112">
-        <v>126</v>
-      </c>
-      <c r="G112">
-        <v>120</v>
-      </c>
-    </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3444,61 +3462,67 @@
         <v>8</v>
       </c>
       <c r="F113">
-        <v>200</v>
+        <v>477</v>
       </c>
       <c r="G113">
-        <v>185</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="s">
         <v>5</v>
+      </c>
+      <c r="F114">
+        <v>128</v>
+      </c>
+      <c r="G114">
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="B115" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
       </c>
       <c r="F115">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G115">
-        <v>540</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3507,21 +3531,21 @@
         <v>8</v>
       </c>
       <c r="F116">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="G116">
-        <v>160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>44519</v>
+        <v>44523</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3530,44 +3554,44 @@
         <v>8</v>
       </c>
       <c r="F117">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="G117">
-        <v>140</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
       </c>
       <c r="F118">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="G118">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3576,67 +3600,64 @@
         <v>8</v>
       </c>
       <c r="F119">
-        <v>157</v>
+        <v>1145.7</v>
       </c>
       <c r="G119">
-        <v>137</v>
+        <v>1181.8800000000001</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
       </c>
       <c r="F120">
-        <v>125</v>
-      </c>
-      <c r="G120">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F121">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G121">
-        <v>160.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>44518</v>
+        <v>44522</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3645,38 +3666,38 @@
         <v>8</v>
       </c>
       <c r="F122">
-        <v>483</v>
+        <v>200</v>
       </c>
       <c r="G122">
-        <v>471</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D124">
         <v>-1</v>
@@ -3685,41 +3706,44 @@
         <v>5</v>
       </c>
       <c r="F124">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G124">
-        <v>87</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F125">
-        <v>1050</v>
+        <v>170</v>
+      </c>
+      <c r="G125">
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3728,61 +3752,67 @@
         <v>8</v>
       </c>
       <c r="F126">
-        <v>1100</v>
+        <v>147</v>
       </c>
       <c r="G126">
-        <v>990</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>44517</v>
+        <v>44519</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F127">
-        <v>261</v>
+        <v>199</v>
+      </c>
+      <c r="G127">
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
       </c>
       <c r="F128">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="G128">
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3791,21 +3821,21 @@
         <v>5</v>
       </c>
       <c r="F129">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G129">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3814,21 +3844,21 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="G130">
-        <v>320</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3837,90 +3867,81 @@
         <v>8</v>
       </c>
       <c r="F131">
-        <v>87</v>
+        <v>483</v>
       </c>
       <c r="G131">
-        <v>96</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
-      </c>
-      <c r="F132">
-        <v>150</v>
-      </c>
-      <c r="G132">
-        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F133">
-        <v>1145</v>
+        <v>72</v>
       </c>
       <c r="G133">
-        <v>1160</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F134">
-        <v>118</v>
-      </c>
-      <c r="G134">
-        <v>123</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B135" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3929,44 +3950,41 @@
         <v>8</v>
       </c>
       <c r="F135">
-        <v>380</v>
+        <v>1100</v>
       </c>
       <c r="G135">
-        <v>357</v>
+        <v>990</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F136">
-        <v>685</v>
-      </c>
-      <c r="G136">
-        <v>558</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3975,87 +3993,84 @@
         <v>8</v>
       </c>
       <c r="F137">
-        <v>165</v>
-      </c>
-      <c r="G137">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F138">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G138">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F139">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="G139">
-        <v>180</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B140" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F140">
-        <v>2.7</v>
+        <v>87</v>
       </c>
       <c r="G140">
-        <v>2.8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>44515</v>
+        <v>44517</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
@@ -4067,64 +4082,64 @@
         <v>8</v>
       </c>
       <c r="F141">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G141">
-        <v>54</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C142" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F142">
-        <v>228</v>
+        <v>1145</v>
       </c>
       <c r="G142">
-        <v>206</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B143" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F143">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="G143">
-        <v>17</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
@@ -4133,30 +4148,36 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F144">
-        <v>103</v>
+        <v>380</v>
       </c>
       <c r="G144">
-        <v>112</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <v>685</v>
+      </c>
+      <c r="G145">
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -4164,22 +4185,22 @@
         <v>44515</v>
       </c>
       <c r="B146" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F146">
-        <v>960</v>
+        <v>165</v>
       </c>
       <c r="G146">
-        <v>800</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -4187,22 +4208,22 @@
         <v>44515</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F147">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="G147">
-        <v>70</v>
+        <v>117</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -4210,22 +4231,22 @@
         <v>44515</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F148">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="G148">
-        <v>65</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -4233,22 +4254,22 @@
         <v>44515</v>
       </c>
       <c r="B149" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F149">
-        <v>32</v>
+        <v>2.7</v>
       </c>
       <c r="G149">
-        <v>37</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -4256,56 +4277,56 @@
         <v>44515</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C150" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
       </c>
       <c r="F150">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="G150">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F151">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="G151">
-        <v>145</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B152" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C152" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -4314,87 +4335,81 @@
         <v>8</v>
       </c>
       <c r="F152">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G152">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B153" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C153" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F153">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G153">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
-      </c>
-      <c r="F154">
-        <v>697</v>
-      </c>
-      <c r="G154">
-        <v>640</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C155" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F155">
-        <v>197</v>
+        <v>960</v>
       </c>
       <c r="G155">
-        <v>185</v>
+        <v>800</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B156" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C156" t="s">
         <v>44</v>
@@ -4403,47 +4418,47 @@
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F156">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="G156">
-        <v>220</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F157">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="G157">
-        <v>205</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B158" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -4452,21 +4467,21 @@
         <v>8</v>
       </c>
       <c r="F158">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G158">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -4475,41 +4490,44 @@
         <v>8</v>
       </c>
       <c r="F159">
-        <v>340</v>
+        <v>145</v>
       </c>
       <c r="G159">
-        <v>295</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B160" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C160" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F160">
-        <v>310</v>
+        <v>155</v>
+      </c>
+      <c r="G160">
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B161" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -4518,21 +4536,21 @@
         <v>8</v>
       </c>
       <c r="F161">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="G161">
-        <v>320</v>
+        <v>85</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -4541,67 +4559,67 @@
         <v>8</v>
       </c>
       <c r="F162">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="G162">
-        <v>930</v>
+        <v>85</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B163" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F163">
-        <v>75</v>
+        <v>697</v>
       </c>
       <c r="G163">
-        <v>145</v>
+        <v>640</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B164" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F164">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="G164">
-        <v>45</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B165" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -4610,44 +4628,44 @@
         <v>5</v>
       </c>
       <c r="F165">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="G165">
-        <v>300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B166" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C166" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F166">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="G166">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>44510</v>
+        <v>44512</v>
       </c>
       <c r="B167" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -4656,67 +4674,64 @@
         <v>8</v>
       </c>
       <c r="F167">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G167">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B168" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
       </c>
       <c r="F168">
-        <v>497</v>
+        <v>340</v>
       </c>
       <c r="G168">
-        <v>512</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B169" t="s">
         <v>55</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D169">
         <v>-1</v>
       </c>
       <c r="E169" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F169">
-        <v>360</v>
-      </c>
-      <c r="G169">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B170" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -4725,21 +4740,21 @@
         <v>8</v>
       </c>
       <c r="F170">
-        <v>92.5</v>
+        <v>360</v>
       </c>
       <c r="G170">
-        <v>83</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B171" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -4748,33 +4763,33 @@
         <v>8</v>
       </c>
       <c r="F171">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="G171">
-        <v>89</v>
+        <v>930</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
       </c>
       <c r="F172">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="G172">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -4782,22 +4797,22 @@
         <v>44510</v>
       </c>
       <c r="B173" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C173" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F173">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="G173">
-        <v>140</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -4805,122 +4820,125 @@
         <v>44510</v>
       </c>
       <c r="B174" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F174">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="G174">
-        <v>140</v>
+        <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B175" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C175" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
       </c>
       <c r="F175">
-        <v>240</v>
+        <v>175</v>
+      </c>
+      <c r="G175">
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B176" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
       </c>
       <c r="F176">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="G176">
-        <v>222</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B177" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F177">
-        <v>248</v>
+        <v>497</v>
       </c>
       <c r="G177">
-        <v>231</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B178" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F178">
-        <v>575</v>
+        <v>360</v>
       </c>
       <c r="G178">
-        <v>545</v>
+        <v>340</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B179" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4929,50 +4947,53 @@
         <v>8</v>
       </c>
       <c r="F179">
-        <v>328</v>
+        <v>92.5</v>
       </c>
       <c r="G179">
-        <v>310</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>44505</v>
+        <v>44510</v>
       </c>
       <c r="B180" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C180" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F180">
-        <v>170</v>
+        <v>100</v>
+      </c>
+      <c r="G180">
+        <v>89</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>44505</v>
+        <v>44510</v>
       </c>
       <c r="B181" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F181">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="G181">
         <v>175</v>
@@ -4980,36 +5001,36 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>44505</v>
+        <v>44510</v>
       </c>
       <c r="B182" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C182" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F182">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="G182">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>44505</v>
+        <v>44510</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C183" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -5018,125 +5039,122 @@
         <v>8</v>
       </c>
       <c r="F183">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="G183">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B184" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
       </c>
       <c r="F184">
-        <v>66</v>
-      </c>
-      <c r="G184">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B185" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C185" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="s">
         <v>8</v>
       </c>
       <c r="F185">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="G185">
-        <v>55</v>
+        <v>222</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B186" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C186" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F186">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="G186">
-        <v>50</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B187" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F187">
-        <v>210</v>
+        <v>575</v>
       </c>
       <c r="G187">
-        <v>200</v>
+        <v>545</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>44505</v>
+        <v>44509</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F188">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="G188">
-        <v>110</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -5144,22 +5162,19 @@
         <v>44505</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="s">
         <v>5</v>
       </c>
       <c r="F189">
-        <v>120</v>
-      </c>
-      <c r="G189">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -5167,76 +5182,79 @@
         <v>44505</v>
       </c>
       <c r="B190" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F190">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="G190">
-        <v>300</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B191" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C191" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F191">
-        <v>123</v>
+        <v>55</v>
+      </c>
+      <c r="G191">
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B192" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F192">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="G192">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B193" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -5245,265 +5263,265 @@
         <v>8</v>
       </c>
       <c r="F193">
-        <v>350</v>
+        <v>66</v>
       </c>
       <c r="G193">
-        <v>245</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B194" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C194" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F194">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="G194">
-        <v>270</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B195" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C195" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="s">
         <v>5</v>
       </c>
       <c r="F195">
-        <v>272</v>
+        <v>60</v>
+      </c>
+      <c r="G195">
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B196" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F196">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="G196">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B197" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C197" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F197">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="G197">
-        <v>176</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B198" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F198">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="G198">
-        <v>270</v>
+        <v>111</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="B199" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="F199">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="G199">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B200" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C200" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E200" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F200">
-        <v>135</v>
-      </c>
-      <c r="G200">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B201" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C201" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F201">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G201">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B202" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C202" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D202">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F202">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="G202">
-        <v>530</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B203" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F203">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c r="G203">
-        <v>163</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B204" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F204">
-        <v>59</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B205" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C205" t="s">
         <v>11</v>
@@ -5515,21 +5533,21 @@
         <v>8</v>
       </c>
       <c r="F205">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G205">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C206" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -5538,21 +5556,21 @@
         <v>8</v>
       </c>
       <c r="F206">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G206">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B207" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C207" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -5561,176 +5579,179 @@
         <v>8</v>
       </c>
       <c r="F207">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="G207">
-        <v>46</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B208" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C208" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F208">
-        <v>550</v>
+        <v>130</v>
       </c>
       <c r="G208">
-        <v>540</v>
+        <v>125</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B209" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C209" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D209">
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F209">
-        <v>810</v>
+        <v>135</v>
       </c>
       <c r="G209">
-        <v>760</v>
+        <v>130</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="B210" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C210" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D210">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F210">
-        <v>360</v>
+        <v>123</v>
+      </c>
+      <c r="G210">
+        <v>120</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="B211" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F211">
-        <v>208</v>
+        <v>540</v>
       </c>
       <c r="G211">
-        <v>206</v>
+        <v>530</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <v>44501</v>
+        <v>44503</v>
       </c>
       <c r="B212" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="s">
         <v>8</v>
       </c>
       <c r="F212">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="G212">
+        <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B213" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D213">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E213" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F213">
-        <v>105</v>
-      </c>
-      <c r="G213">
-        <v>208</v>
+        <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B214" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C214" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F214">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="G214">
-        <v>192</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B215" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -5739,79 +5760,79 @@
         <v>8</v>
       </c>
       <c r="F215">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="G215">
-        <v>192</v>
+        <v>91</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B216" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C216" t="s">
+        <v>44</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216">
         <v>54</v>
       </c>
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216" t="s">
-        <v>90</v>
-      </c>
-      <c r="F216">
-        <v>146</v>
-      </c>
       <c r="G216">
-        <v>135</v>
+        <v>46</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C217" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F217">
-        <v>88</v>
+        <v>550</v>
       </c>
       <c r="G217">
-        <v>85</v>
+        <v>540</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B218" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F218">
-        <v>85</v>
+        <v>810</v>
       </c>
       <c r="G218">
-        <v>100</v>
+        <v>760</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -5819,22 +5840,19 @@
         <v>44501</v>
       </c>
       <c r="B219" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C219" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F219">
-        <v>210</v>
-      </c>
-      <c r="G219">
-        <v>215</v>
+        <v>360</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -5842,21 +5860,225 @@
         <v>44501</v>
       </c>
       <c r="B220" t="s">
+        <v>98</v>
+      </c>
+      <c r="C220" t="s">
+        <v>23</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220">
+        <v>208</v>
+      </c>
+      <c r="G220">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B221" t="s">
+        <v>99</v>
+      </c>
+      <c r="C221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B222" t="s">
+        <v>99</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222">
+        <v>-2</v>
+      </c>
+      <c r="E222" t="s">
+        <v>57</v>
+      </c>
+      <c r="F222">
+        <v>105</v>
+      </c>
+      <c r="G222">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B223" t="s">
+        <v>100</v>
+      </c>
+      <c r="C223" t="s">
+        <v>54</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>90</v>
+      </c>
+      <c r="F223">
+        <v>204</v>
+      </c>
+      <c r="G223">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B224" t="s">
+        <v>101</v>
+      </c>
+      <c r="C224" t="s">
+        <v>21</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224">
+        <v>175</v>
+      </c>
+      <c r="G224">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B225" t="s">
+        <v>81</v>
+      </c>
+      <c r="C225" t="s">
+        <v>54</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>90</v>
+      </c>
+      <c r="F225">
+        <v>146</v>
+      </c>
+      <c r="G225">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" t="s">
+        <v>54</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>90</v>
+      </c>
+      <c r="F226">
+        <v>88</v>
+      </c>
+      <c r="G226">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B227" t="s">
+        <v>102</v>
+      </c>
+      <c r="C227" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>5</v>
+      </c>
+      <c r="F227">
+        <v>85</v>
+      </c>
+      <c r="G227">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B228" t="s">
+        <v>103</v>
+      </c>
+      <c r="C228" t="s">
+        <v>23</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228">
+        <v>210</v>
+      </c>
+      <c r="G228">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B229" t="s">
         <v>104</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C229" t="s">
         <v>105</v>
       </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220" t="s">
-        <v>5</v>
-      </c>
-      <c r="F220">
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>5</v>
+      </c>
+      <c r="F229">
         <v>204</v>
       </c>
-      <c r="G220">
+      <c r="G229">
         <v>210</v>
       </c>
     </row>
